--- a/assets/Clientes.xlsx
+++ b/assets/Clientes.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="20490" windowHeight="7770"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t xml:space="preserve">Cliente </t>
   </si>
@@ -56,9 +72,6 @@
   </si>
   <si>
     <t>Prospecção Ativa</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Katiscua Lima - Corretora</t>
@@ -109,74 +122,918 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$R$ -416]#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="22">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -366,26 +1223,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.75"/>
-    <col customWidth="1" min="2" max="2" width="22.63"/>
-    <col customWidth="1" min="3" max="3" width="16.88"/>
-    <col customWidth="1" min="4" max="4" width="16.75"/>
+    <col min="1" max="1" width="25.752380952381" customWidth="1"/>
+    <col min="2" max="2" width="22.6285714285714" customWidth="1"/>
+    <col min="3" max="3" width="16.8761904761905" customWidth="1"/>
+    <col min="4" max="4" width="16.752380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -422,10 +1283,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="4">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -438,39 +1299,37 @@
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1350.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -482,15 +1341,15 @@
         <v>10</v>
       </c>
       <c r="F5" s="4">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -499,18 +1358,18 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -519,15 +1378,15 @@
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -539,18 +1398,18 @@
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -559,18 +1418,18 @@
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="4">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -579,15 +1438,15 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -598,2981 +1457,2980 @@
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="4">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="6:6">
       <c r="F12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" spans="6:6">
       <c r="F13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="6:6">
       <c r="F14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" customHeight="1" spans="6:6">
       <c r="F15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" customHeight="1" spans="6:6">
       <c r="F16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" customHeight="1" spans="6:6">
       <c r="F17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" customHeight="1" spans="6:6">
       <c r="F18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" customHeight="1" spans="6:6">
       <c r="F19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" customHeight="1" spans="6:6">
       <c r="F20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" customHeight="1" spans="6:6">
       <c r="F21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" customHeight="1" spans="6:6">
       <c r="F22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" customHeight="1" spans="6:6">
       <c r="F23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" customHeight="1" spans="6:6">
       <c r="F24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" customHeight="1" spans="6:6">
       <c r="F25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" customHeight="1" spans="6:6">
       <c r="F26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" customHeight="1" spans="6:6">
       <c r="F27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" customHeight="1" spans="6:6">
       <c r="F28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" customHeight="1" spans="6:6">
       <c r="F29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" customHeight="1" spans="6:6">
       <c r="F30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" customHeight="1" spans="6:6">
       <c r="F31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" customHeight="1" spans="6:6">
       <c r="F32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" customHeight="1" spans="6:6">
       <c r="F33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" customHeight="1" spans="6:6">
       <c r="F34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" customHeight="1" spans="6:6">
       <c r="F35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" customHeight="1" spans="6:6">
       <c r="F36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" customHeight="1" spans="6:6">
       <c r="F37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" customHeight="1" spans="6:6">
       <c r="F38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" customHeight="1" spans="6:6">
       <c r="F39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" customHeight="1" spans="6:6">
       <c r="F40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" customHeight="1" spans="6:6">
       <c r="F41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" customHeight="1" spans="6:6">
       <c r="F42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" customHeight="1" spans="6:6">
       <c r="F43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" customHeight="1" spans="6:6">
       <c r="F44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" customHeight="1" spans="6:6">
       <c r="F45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" customHeight="1" spans="6:6">
       <c r="F46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" customHeight="1" spans="6:6">
       <c r="F47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" customHeight="1" spans="6:6">
       <c r="F48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" customHeight="1" spans="6:6">
       <c r="F49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" customHeight="1" spans="6:6">
       <c r="F50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" customHeight="1" spans="6:6">
       <c r="F51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" customHeight="1" spans="6:6">
       <c r="F52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" customHeight="1" spans="6:6">
       <c r="F53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" customHeight="1" spans="6:6">
       <c r="F54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" customHeight="1" spans="6:6">
       <c r="F55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" customHeight="1" spans="6:6">
       <c r="F56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" customHeight="1" spans="6:6">
       <c r="F57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" customHeight="1" spans="6:6">
       <c r="F58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" customHeight="1" spans="6:6">
       <c r="F59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" customHeight="1" spans="6:6">
       <c r="F60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" customHeight="1" spans="6:6">
       <c r="F61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" customHeight="1" spans="6:6">
       <c r="F62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" customHeight="1" spans="6:6">
       <c r="F63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" customHeight="1" spans="6:6">
       <c r="F64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" customHeight="1" spans="6:6">
       <c r="F65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" customHeight="1" spans="6:6">
       <c r="F66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" customHeight="1" spans="6:6">
       <c r="F67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" customHeight="1" spans="6:6">
       <c r="F68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" customHeight="1" spans="6:6">
       <c r="F69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" customHeight="1" spans="6:6">
       <c r="F70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" customHeight="1" spans="6:6">
       <c r="F71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" customHeight="1" spans="6:6">
       <c r="F72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" customHeight="1" spans="6:6">
       <c r="F73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" customHeight="1" spans="6:6">
       <c r="F74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" customHeight="1" spans="6:6">
       <c r="F75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" customHeight="1" spans="6:6">
       <c r="F76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" customHeight="1" spans="6:6">
       <c r="F77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" customHeight="1" spans="6:6">
       <c r="F78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" customHeight="1" spans="6:6">
       <c r="F79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" customHeight="1" spans="6:6">
       <c r="F80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" customHeight="1" spans="6:6">
       <c r="F81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" customHeight="1" spans="6:6">
       <c r="F82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" customHeight="1" spans="6:6">
       <c r="F83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" customHeight="1" spans="6:6">
       <c r="F84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" customHeight="1" spans="6:6">
       <c r="F85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" customHeight="1" spans="6:6">
       <c r="F86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" customHeight="1" spans="6:6">
       <c r="F87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" customHeight="1" spans="6:6">
       <c r="F88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" customHeight="1" spans="6:6">
       <c r="F89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" customHeight="1" spans="6:6">
       <c r="F90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" customHeight="1" spans="6:6">
       <c r="F91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" customHeight="1" spans="6:6">
       <c r="F92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" customHeight="1" spans="6:6">
       <c r="F93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" customHeight="1" spans="6:6">
       <c r="F94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" customHeight="1" spans="6:6">
       <c r="F95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" customHeight="1" spans="6:6">
       <c r="F96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" customHeight="1" spans="6:6">
       <c r="F97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" customHeight="1" spans="6:6">
       <c r="F98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" customHeight="1" spans="6:6">
       <c r="F99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" customHeight="1" spans="6:6">
       <c r="F100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" customHeight="1" spans="6:6">
       <c r="F101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" customHeight="1" spans="6:6">
       <c r="F102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" customHeight="1" spans="6:6">
       <c r="F103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" customHeight="1" spans="6:6">
       <c r="F104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" customHeight="1" spans="6:6">
       <c r="F105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" customHeight="1" spans="6:6">
       <c r="F106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" customHeight="1" spans="6:6">
       <c r="F107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" customHeight="1" spans="6:6">
       <c r="F108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" customHeight="1" spans="6:6">
       <c r="F109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" customHeight="1" spans="6:6">
       <c r="F110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" customHeight="1" spans="6:6">
       <c r="F111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" customHeight="1" spans="6:6">
       <c r="F112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" customHeight="1" spans="6:6">
       <c r="F113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" customHeight="1" spans="6:6">
       <c r="F114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" customHeight="1" spans="6:6">
       <c r="F115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" customHeight="1" spans="6:6">
       <c r="F116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" customHeight="1" spans="6:6">
       <c r="F117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" customHeight="1" spans="6:6">
       <c r="F118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" customHeight="1" spans="6:6">
       <c r="F119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" customHeight="1" spans="6:6">
       <c r="F120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" customHeight="1" spans="6:6">
       <c r="F121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" customHeight="1" spans="6:6">
       <c r="F122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" customHeight="1" spans="6:6">
       <c r="F123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" customHeight="1" spans="6:6">
       <c r="F124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" customHeight="1" spans="6:6">
       <c r="F125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" customHeight="1" spans="6:6">
       <c r="F126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" customHeight="1" spans="6:6">
       <c r="F127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" customHeight="1" spans="6:6">
       <c r="F128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" customHeight="1" spans="6:6">
       <c r="F129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" customHeight="1" spans="6:6">
       <c r="F130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" customHeight="1" spans="6:6">
       <c r="F131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" customHeight="1" spans="6:6">
       <c r="F132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" customHeight="1" spans="6:6">
       <c r="F133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" customHeight="1" spans="6:6">
       <c r="F134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" customHeight="1" spans="6:6">
       <c r="F135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" customHeight="1" spans="6:6">
       <c r="F136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" customHeight="1" spans="6:6">
       <c r="F137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" customHeight="1" spans="6:6">
       <c r="F138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" customHeight="1" spans="6:6">
       <c r="F139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" customHeight="1" spans="6:6">
       <c r="F140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" customHeight="1" spans="6:6">
       <c r="F141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" customHeight="1" spans="6:6">
       <c r="F142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" customHeight="1" spans="6:6">
       <c r="F143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" customHeight="1" spans="6:6">
       <c r="F144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" customHeight="1" spans="6:6">
       <c r="F145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" customHeight="1" spans="6:6">
       <c r="F146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" customHeight="1" spans="6:6">
       <c r="F147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" customHeight="1" spans="6:6">
       <c r="F148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" customHeight="1" spans="6:6">
       <c r="F149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" customHeight="1" spans="6:6">
       <c r="F150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" customHeight="1" spans="6:6">
       <c r="F151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" customHeight="1" spans="6:6">
       <c r="F152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" customHeight="1" spans="6:6">
       <c r="F153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" customHeight="1" spans="6:6">
       <c r="F154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" customHeight="1" spans="6:6">
       <c r="F155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" customHeight="1" spans="6:6">
       <c r="F156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" customHeight="1" spans="6:6">
       <c r="F157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" customHeight="1" spans="6:6">
       <c r="F158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" customHeight="1" spans="6:6">
       <c r="F159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" customHeight="1" spans="6:6">
       <c r="F160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" customHeight="1" spans="6:6">
       <c r="F161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" customHeight="1" spans="6:6">
       <c r="F162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" customHeight="1" spans="6:6">
       <c r="F163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" customHeight="1" spans="6:6">
       <c r="F164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" customHeight="1" spans="6:6">
       <c r="F165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" customHeight="1" spans="6:6">
       <c r="F166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" customHeight="1" spans="6:6">
       <c r="F167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" customHeight="1" spans="6:6">
       <c r="F168" s="5"/>
     </row>
-    <row r="169">
+    <row r="169" customHeight="1" spans="6:6">
       <c r="F169" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" customHeight="1" spans="6:6">
       <c r="F170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" customHeight="1" spans="6:6">
       <c r="F171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" customHeight="1" spans="6:6">
       <c r="F172" s="5"/>
     </row>
-    <row r="173">
+    <row r="173" customHeight="1" spans="6:6">
       <c r="F173" s="5"/>
     </row>
-    <row r="174">
+    <row r="174" customHeight="1" spans="6:6">
       <c r="F174" s="5"/>
     </row>
-    <row r="175">
+    <row r="175" customHeight="1" spans="6:6">
       <c r="F175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" customHeight="1" spans="6:6">
       <c r="F176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" customHeight="1" spans="6:6">
       <c r="F177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" customHeight="1" spans="6:6">
       <c r="F178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" customHeight="1" spans="6:6">
       <c r="F179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" customHeight="1" spans="6:6">
       <c r="F180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" customHeight="1" spans="6:6">
       <c r="F181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" customHeight="1" spans="6:6">
       <c r="F182" s="5"/>
     </row>
-    <row r="183">
+    <row r="183" customHeight="1" spans="6:6">
       <c r="F183" s="5"/>
     </row>
-    <row r="184">
+    <row r="184" customHeight="1" spans="6:6">
       <c r="F184" s="5"/>
     </row>
-    <row r="185">
+    <row r="185" customHeight="1" spans="6:6">
       <c r="F185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" customHeight="1" spans="6:6">
       <c r="F186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" customHeight="1" spans="6:6">
       <c r="F187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" customHeight="1" spans="6:6">
       <c r="F188" s="5"/>
     </row>
-    <row r="189">
+    <row r="189" customHeight="1" spans="6:6">
       <c r="F189" s="5"/>
     </row>
-    <row r="190">
+    <row r="190" customHeight="1" spans="6:6">
       <c r="F190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" customHeight="1" spans="6:6">
       <c r="F191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" customHeight="1" spans="6:6">
       <c r="F192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" customHeight="1" spans="6:6">
       <c r="F193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" customHeight="1" spans="6:6">
       <c r="F194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" customHeight="1" spans="6:6">
       <c r="F195" s="5"/>
     </row>
-    <row r="196">
+    <row r="196" customHeight="1" spans="6:6">
       <c r="F196" s="5"/>
     </row>
-    <row r="197">
+    <row r="197" customHeight="1" spans="6:6">
       <c r="F197" s="5"/>
     </row>
-    <row r="198">
+    <row r="198" customHeight="1" spans="6:6">
       <c r="F198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" customHeight="1" spans="6:6">
       <c r="F199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" customHeight="1" spans="6:6">
       <c r="F200" s="5"/>
     </row>
-    <row r="201">
+    <row r="201" customHeight="1" spans="6:6">
       <c r="F201" s="5"/>
     </row>
-    <row r="202">
+    <row r="202" customHeight="1" spans="6:6">
       <c r="F202" s="5"/>
     </row>
-    <row r="203">
+    <row r="203" customHeight="1" spans="6:6">
       <c r="F203" s="5"/>
     </row>
-    <row r="204">
+    <row r="204" customHeight="1" spans="6:6">
       <c r="F204" s="5"/>
     </row>
-    <row r="205">
+    <row r="205" customHeight="1" spans="6:6">
       <c r="F205" s="5"/>
     </row>
-    <row r="206">
+    <row r="206" customHeight="1" spans="6:6">
       <c r="F206" s="5"/>
     </row>
-    <row r="207">
+    <row r="207" customHeight="1" spans="6:6">
       <c r="F207" s="5"/>
     </row>
-    <row r="208">
+    <row r="208" customHeight="1" spans="6:6">
       <c r="F208" s="5"/>
     </row>
-    <row r="209">
+    <row r="209" customHeight="1" spans="6:6">
       <c r="F209" s="5"/>
     </row>
-    <row r="210">
+    <row r="210" customHeight="1" spans="6:6">
       <c r="F210" s="5"/>
     </row>
-    <row r="211">
+    <row r="211" customHeight="1" spans="6:6">
       <c r="F211" s="5"/>
     </row>
-    <row r="212">
+    <row r="212" customHeight="1" spans="6:6">
       <c r="F212" s="5"/>
     </row>
-    <row r="213">
+    <row r="213" customHeight="1" spans="6:6">
       <c r="F213" s="5"/>
     </row>
-    <row r="214">
+    <row r="214" customHeight="1" spans="6:6">
       <c r="F214" s="5"/>
     </row>
-    <row r="215">
+    <row r="215" customHeight="1" spans="6:6">
       <c r="F215" s="5"/>
     </row>
-    <row r="216">
+    <row r="216" customHeight="1" spans="6:6">
       <c r="F216" s="5"/>
     </row>
-    <row r="217">
+    <row r="217" customHeight="1" spans="6:6">
       <c r="F217" s="5"/>
     </row>
-    <row r="218">
+    <row r="218" customHeight="1" spans="6:6">
       <c r="F218" s="5"/>
     </row>
-    <row r="219">
+    <row r="219" customHeight="1" spans="6:6">
       <c r="F219" s="5"/>
     </row>
-    <row r="220">
+    <row r="220" customHeight="1" spans="6:6">
       <c r="F220" s="5"/>
     </row>
-    <row r="221">
+    <row r="221" customHeight="1" spans="6:6">
       <c r="F221" s="5"/>
     </row>
-    <row r="222">
+    <row r="222" customHeight="1" spans="6:6">
       <c r="F222" s="5"/>
     </row>
-    <row r="223">
+    <row r="223" customHeight="1" spans="6:6">
       <c r="F223" s="5"/>
     </row>
-    <row r="224">
+    <row r="224" customHeight="1" spans="6:6">
       <c r="F224" s="5"/>
     </row>
-    <row r="225">
+    <row r="225" customHeight="1" spans="6:6">
       <c r="F225" s="5"/>
     </row>
-    <row r="226">
+    <row r="226" customHeight="1" spans="6:6">
       <c r="F226" s="5"/>
     </row>
-    <row r="227">
+    <row r="227" customHeight="1" spans="6:6">
       <c r="F227" s="5"/>
     </row>
-    <row r="228">
+    <row r="228" customHeight="1" spans="6:6">
       <c r="F228" s="5"/>
     </row>
-    <row r="229">
+    <row r="229" customHeight="1" spans="6:6">
       <c r="F229" s="5"/>
     </row>
-    <row r="230">
+    <row r="230" customHeight="1" spans="6:6">
       <c r="F230" s="5"/>
     </row>
-    <row r="231">
+    <row r="231" customHeight="1" spans="6:6">
       <c r="F231" s="5"/>
     </row>
-    <row r="232">
+    <row r="232" customHeight="1" spans="6:6">
       <c r="F232" s="5"/>
     </row>
-    <row r="233">
+    <row r="233" customHeight="1" spans="6:6">
       <c r="F233" s="5"/>
     </row>
-    <row r="234">
+    <row r="234" customHeight="1" spans="6:6">
       <c r="F234" s="5"/>
     </row>
-    <row r="235">
+    <row r="235" customHeight="1" spans="6:6">
       <c r="F235" s="5"/>
     </row>
-    <row r="236">
+    <row r="236" customHeight="1" spans="6:6">
       <c r="F236" s="5"/>
     </row>
-    <row r="237">
+    <row r="237" customHeight="1" spans="6:6">
       <c r="F237" s="5"/>
     </row>
-    <row r="238">
+    <row r="238" customHeight="1" spans="6:6">
       <c r="F238" s="5"/>
     </row>
-    <row r="239">
+    <row r="239" customHeight="1" spans="6:6">
       <c r="F239" s="5"/>
     </row>
-    <row r="240">
+    <row r="240" customHeight="1" spans="6:6">
       <c r="F240" s="5"/>
     </row>
-    <row r="241">
+    <row r="241" customHeight="1" spans="6:6">
       <c r="F241" s="5"/>
     </row>
-    <row r="242">
+    <row r="242" customHeight="1" spans="6:6">
       <c r="F242" s="5"/>
     </row>
-    <row r="243">
+    <row r="243" customHeight="1" spans="6:6">
       <c r="F243" s="5"/>
     </row>
-    <row r="244">
+    <row r="244" customHeight="1" spans="6:6">
       <c r="F244" s="5"/>
     </row>
-    <row r="245">
+    <row r="245" customHeight="1" spans="6:6">
       <c r="F245" s="5"/>
     </row>
-    <row r="246">
+    <row r="246" customHeight="1" spans="6:6">
       <c r="F246" s="5"/>
     </row>
-    <row r="247">
+    <row r="247" customHeight="1" spans="6:6">
       <c r="F247" s="5"/>
     </row>
-    <row r="248">
+    <row r="248" customHeight="1" spans="6:6">
       <c r="F248" s="5"/>
     </row>
-    <row r="249">
+    <row r="249" customHeight="1" spans="6:6">
       <c r="F249" s="5"/>
     </row>
-    <row r="250">
+    <row r="250" customHeight="1" spans="6:6">
       <c r="F250" s="5"/>
     </row>
-    <row r="251">
+    <row r="251" customHeight="1" spans="6:6">
       <c r="F251" s="5"/>
     </row>
-    <row r="252">
+    <row r="252" customHeight="1" spans="6:6">
       <c r="F252" s="5"/>
     </row>
-    <row r="253">
+    <row r="253" customHeight="1" spans="6:6">
       <c r="F253" s="5"/>
     </row>
-    <row r="254">
+    <row r="254" customHeight="1" spans="6:6">
       <c r="F254" s="5"/>
     </row>
-    <row r="255">
+    <row r="255" customHeight="1" spans="6:6">
       <c r="F255" s="5"/>
     </row>
-    <row r="256">
+    <row r="256" customHeight="1" spans="6:6">
       <c r="F256" s="5"/>
     </row>
-    <row r="257">
+    <row r="257" customHeight="1" spans="6:6">
       <c r="F257" s="5"/>
     </row>
-    <row r="258">
+    <row r="258" customHeight="1" spans="6:6">
       <c r="F258" s="5"/>
     </row>
-    <row r="259">
+    <row r="259" customHeight="1" spans="6:6">
       <c r="F259" s="5"/>
     </row>
-    <row r="260">
+    <row r="260" customHeight="1" spans="6:6">
       <c r="F260" s="5"/>
     </row>
-    <row r="261">
+    <row r="261" customHeight="1" spans="6:6">
       <c r="F261" s="5"/>
     </row>
-    <row r="262">
+    <row r="262" customHeight="1" spans="6:6">
       <c r="F262" s="5"/>
     </row>
-    <row r="263">
+    <row r="263" customHeight="1" spans="6:6">
       <c r="F263" s="5"/>
     </row>
-    <row r="264">
+    <row r="264" customHeight="1" spans="6:6">
       <c r="F264" s="5"/>
     </row>
-    <row r="265">
+    <row r="265" customHeight="1" spans="6:6">
       <c r="F265" s="5"/>
     </row>
-    <row r="266">
+    <row r="266" customHeight="1" spans="6:6">
       <c r="F266" s="5"/>
     </row>
-    <row r="267">
+    <row r="267" customHeight="1" spans="6:6">
       <c r="F267" s="5"/>
     </row>
-    <row r="268">
+    <row r="268" customHeight="1" spans="6:6">
       <c r="F268" s="5"/>
     </row>
-    <row r="269">
+    <row r="269" customHeight="1" spans="6:6">
       <c r="F269" s="5"/>
     </row>
-    <row r="270">
+    <row r="270" customHeight="1" spans="6:6">
       <c r="F270" s="5"/>
     </row>
-    <row r="271">
+    <row r="271" customHeight="1" spans="6:6">
       <c r="F271" s="5"/>
     </row>
-    <row r="272">
+    <row r="272" customHeight="1" spans="6:6">
       <c r="F272" s="5"/>
     </row>
-    <row r="273">
+    <row r="273" customHeight="1" spans="6:6">
       <c r="F273" s="5"/>
     </row>
-    <row r="274">
+    <row r="274" customHeight="1" spans="6:6">
       <c r="F274" s="5"/>
     </row>
-    <row r="275">
+    <row r="275" customHeight="1" spans="6:6">
       <c r="F275" s="5"/>
     </row>
-    <row r="276">
+    <row r="276" customHeight="1" spans="6:6">
       <c r="F276" s="5"/>
     </row>
-    <row r="277">
+    <row r="277" customHeight="1" spans="6:6">
       <c r="F277" s="5"/>
     </row>
-    <row r="278">
+    <row r="278" customHeight="1" spans="6:6">
       <c r="F278" s="5"/>
     </row>
-    <row r="279">
+    <row r="279" customHeight="1" spans="6:6">
       <c r="F279" s="5"/>
     </row>
-    <row r="280">
+    <row r="280" customHeight="1" spans="6:6">
       <c r="F280" s="5"/>
     </row>
-    <row r="281">
+    <row r="281" customHeight="1" spans="6:6">
       <c r="F281" s="5"/>
     </row>
-    <row r="282">
+    <row r="282" customHeight="1" spans="6:6">
       <c r="F282" s="5"/>
     </row>
-    <row r="283">
+    <row r="283" customHeight="1" spans="6:6">
       <c r="F283" s="5"/>
     </row>
-    <row r="284">
+    <row r="284" customHeight="1" spans="6:6">
       <c r="F284" s="5"/>
     </row>
-    <row r="285">
+    <row r="285" customHeight="1" spans="6:6">
       <c r="F285" s="5"/>
     </row>
-    <row r="286">
+    <row r="286" customHeight="1" spans="6:6">
       <c r="F286" s="5"/>
     </row>
-    <row r="287">
+    <row r="287" customHeight="1" spans="6:6">
       <c r="F287" s="5"/>
     </row>
-    <row r="288">
+    <row r="288" customHeight="1" spans="6:6">
       <c r="F288" s="5"/>
     </row>
-    <row r="289">
+    <row r="289" customHeight="1" spans="6:6">
       <c r="F289" s="5"/>
     </row>
-    <row r="290">
+    <row r="290" customHeight="1" spans="6:6">
       <c r="F290" s="5"/>
     </row>
-    <row r="291">
+    <row r="291" customHeight="1" spans="6:6">
       <c r="F291" s="5"/>
     </row>
-    <row r="292">
+    <row r="292" customHeight="1" spans="6:6">
       <c r="F292" s="5"/>
     </row>
-    <row r="293">
+    <row r="293" customHeight="1" spans="6:6">
       <c r="F293" s="5"/>
     </row>
-    <row r="294">
+    <row r="294" customHeight="1" spans="6:6">
       <c r="F294" s="5"/>
     </row>
-    <row r="295">
+    <row r="295" customHeight="1" spans="6:6">
       <c r="F295" s="5"/>
     </row>
-    <row r="296">
+    <row r="296" customHeight="1" spans="6:6">
       <c r="F296" s="5"/>
     </row>
-    <row r="297">
+    <row r="297" customHeight="1" spans="6:6">
       <c r="F297" s="5"/>
     </row>
-    <row r="298">
+    <row r="298" customHeight="1" spans="6:6">
       <c r="F298" s="5"/>
     </row>
-    <row r="299">
+    <row r="299" customHeight="1" spans="6:6">
       <c r="F299" s="5"/>
     </row>
-    <row r="300">
+    <row r="300" customHeight="1" spans="6:6">
       <c r="F300" s="5"/>
     </row>
-    <row r="301">
+    <row r="301" customHeight="1" spans="6:6">
       <c r="F301" s="5"/>
     </row>
-    <row r="302">
+    <row r="302" customHeight="1" spans="6:6">
       <c r="F302" s="5"/>
     </row>
-    <row r="303">
+    <row r="303" customHeight="1" spans="6:6">
       <c r="F303" s="5"/>
     </row>
-    <row r="304">
+    <row r="304" customHeight="1" spans="6:6">
       <c r="F304" s="5"/>
     </row>
-    <row r="305">
+    <row r="305" customHeight="1" spans="6:6">
       <c r="F305" s="5"/>
     </row>
-    <row r="306">
+    <row r="306" customHeight="1" spans="6:6">
       <c r="F306" s="5"/>
     </row>
-    <row r="307">
+    <row r="307" customHeight="1" spans="6:6">
       <c r="F307" s="5"/>
     </row>
-    <row r="308">
+    <row r="308" customHeight="1" spans="6:6">
       <c r="F308" s="5"/>
     </row>
-    <row r="309">
+    <row r="309" customHeight="1" spans="6:6">
       <c r="F309" s="5"/>
     </row>
-    <row r="310">
+    <row r="310" customHeight="1" spans="6:6">
       <c r="F310" s="5"/>
     </row>
-    <row r="311">
+    <row r="311" customHeight="1" spans="6:6">
       <c r="F311" s="5"/>
     </row>
-    <row r="312">
+    <row r="312" customHeight="1" spans="6:6">
       <c r="F312" s="5"/>
     </row>
-    <row r="313">
+    <row r="313" customHeight="1" spans="6:6">
       <c r="F313" s="5"/>
     </row>
-    <row r="314">
+    <row r="314" customHeight="1" spans="6:6">
       <c r="F314" s="5"/>
     </row>
-    <row r="315">
+    <row r="315" customHeight="1" spans="6:6">
       <c r="F315" s="5"/>
     </row>
-    <row r="316">
+    <row r="316" customHeight="1" spans="6:6">
       <c r="F316" s="5"/>
     </row>
-    <row r="317">
+    <row r="317" customHeight="1" spans="6:6">
       <c r="F317" s="5"/>
     </row>
-    <row r="318">
+    <row r="318" customHeight="1" spans="6:6">
       <c r="F318" s="5"/>
     </row>
-    <row r="319">
+    <row r="319" customHeight="1" spans="6:6">
       <c r="F319" s="5"/>
     </row>
-    <row r="320">
+    <row r="320" customHeight="1" spans="6:6">
       <c r="F320" s="5"/>
     </row>
-    <row r="321">
+    <row r="321" customHeight="1" spans="6:6">
       <c r="F321" s="5"/>
     </row>
-    <row r="322">
+    <row r="322" customHeight="1" spans="6:6">
       <c r="F322" s="5"/>
     </row>
-    <row r="323">
+    <row r="323" customHeight="1" spans="6:6">
       <c r="F323" s="5"/>
     </row>
-    <row r="324">
+    <row r="324" customHeight="1" spans="6:6">
       <c r="F324" s="5"/>
     </row>
-    <row r="325">
+    <row r="325" customHeight="1" spans="6:6">
       <c r="F325" s="5"/>
     </row>
-    <row r="326">
+    <row r="326" customHeight="1" spans="6:6">
       <c r="F326" s="5"/>
     </row>
-    <row r="327">
+    <row r="327" customHeight="1" spans="6:6">
       <c r="F327" s="5"/>
     </row>
-    <row r="328">
+    <row r="328" customHeight="1" spans="6:6">
       <c r="F328" s="5"/>
     </row>
-    <row r="329">
+    <row r="329" customHeight="1" spans="6:6">
       <c r="F329" s="5"/>
     </row>
-    <row r="330">
+    <row r="330" customHeight="1" spans="6:6">
       <c r="F330" s="5"/>
     </row>
-    <row r="331">
+    <row r="331" customHeight="1" spans="6:6">
       <c r="F331" s="5"/>
     </row>
-    <row r="332">
+    <row r="332" customHeight="1" spans="6:6">
       <c r="F332" s="5"/>
     </row>
-    <row r="333">
+    <row r="333" customHeight="1" spans="6:6">
       <c r="F333" s="5"/>
     </row>
-    <row r="334">
+    <row r="334" customHeight="1" spans="6:6">
       <c r="F334" s="5"/>
     </row>
-    <row r="335">
+    <row r="335" customHeight="1" spans="6:6">
       <c r="F335" s="5"/>
     </row>
-    <row r="336">
+    <row r="336" customHeight="1" spans="6:6">
       <c r="F336" s="5"/>
     </row>
-    <row r="337">
+    <row r="337" customHeight="1" spans="6:6">
       <c r="F337" s="5"/>
     </row>
-    <row r="338">
+    <row r="338" customHeight="1" spans="6:6">
       <c r="F338" s="5"/>
     </row>
-    <row r="339">
+    <row r="339" customHeight="1" spans="6:6">
       <c r="F339" s="5"/>
     </row>
-    <row r="340">
+    <row r="340" customHeight="1" spans="6:6">
       <c r="F340" s="5"/>
     </row>
-    <row r="341">
+    <row r="341" customHeight="1" spans="6:6">
       <c r="F341" s="5"/>
     </row>
-    <row r="342">
+    <row r="342" customHeight="1" spans="6:6">
       <c r="F342" s="5"/>
     </row>
-    <row r="343">
+    <row r="343" customHeight="1" spans="6:6">
       <c r="F343" s="5"/>
     </row>
-    <row r="344">
+    <row r="344" customHeight="1" spans="6:6">
       <c r="F344" s="5"/>
     </row>
-    <row r="345">
+    <row r="345" customHeight="1" spans="6:6">
       <c r="F345" s="5"/>
     </row>
-    <row r="346">
+    <row r="346" customHeight="1" spans="6:6">
       <c r="F346" s="5"/>
     </row>
-    <row r="347">
+    <row r="347" customHeight="1" spans="6:6">
       <c r="F347" s="5"/>
     </row>
-    <row r="348">
+    <row r="348" customHeight="1" spans="6:6">
       <c r="F348" s="5"/>
     </row>
-    <row r="349">
+    <row r="349" customHeight="1" spans="6:6">
       <c r="F349" s="5"/>
     </row>
-    <row r="350">
+    <row r="350" customHeight="1" spans="6:6">
       <c r="F350" s="5"/>
     </row>
-    <row r="351">
+    <row r="351" customHeight="1" spans="6:6">
       <c r="F351" s="5"/>
     </row>
-    <row r="352">
+    <row r="352" customHeight="1" spans="6:6">
       <c r="F352" s="5"/>
     </row>
-    <row r="353">
+    <row r="353" customHeight="1" spans="6:6">
       <c r="F353" s="5"/>
     </row>
-    <row r="354">
+    <row r="354" customHeight="1" spans="6:6">
       <c r="F354" s="5"/>
     </row>
-    <row r="355">
+    <row r="355" customHeight="1" spans="6:6">
       <c r="F355" s="5"/>
     </row>
-    <row r="356">
+    <row r="356" customHeight="1" spans="6:6">
       <c r="F356" s="5"/>
     </row>
-    <row r="357">
+    <row r="357" customHeight="1" spans="6:6">
       <c r="F357" s="5"/>
     </row>
-    <row r="358">
+    <row r="358" customHeight="1" spans="6:6">
       <c r="F358" s="5"/>
     </row>
-    <row r="359">
+    <row r="359" customHeight="1" spans="6:6">
       <c r="F359" s="5"/>
     </row>
-    <row r="360">
+    <row r="360" customHeight="1" spans="6:6">
       <c r="F360" s="5"/>
     </row>
-    <row r="361">
+    <row r="361" customHeight="1" spans="6:6">
       <c r="F361" s="5"/>
     </row>
-    <row r="362">
+    <row r="362" customHeight="1" spans="6:6">
       <c r="F362" s="5"/>
     </row>
-    <row r="363">
+    <row r="363" customHeight="1" spans="6:6">
       <c r="F363" s="5"/>
     </row>
-    <row r="364">
+    <row r="364" customHeight="1" spans="6:6">
       <c r="F364" s="5"/>
     </row>
-    <row r="365">
+    <row r="365" customHeight="1" spans="6:6">
       <c r="F365" s="5"/>
     </row>
-    <row r="366">
+    <row r="366" customHeight="1" spans="6:6">
       <c r="F366" s="5"/>
     </row>
-    <row r="367">
+    <row r="367" customHeight="1" spans="6:6">
       <c r="F367" s="5"/>
     </row>
-    <row r="368">
+    <row r="368" customHeight="1" spans="6:6">
       <c r="F368" s="5"/>
     </row>
-    <row r="369">
+    <row r="369" customHeight="1" spans="6:6">
       <c r="F369" s="5"/>
     </row>
-    <row r="370">
+    <row r="370" customHeight="1" spans="6:6">
       <c r="F370" s="5"/>
     </row>
-    <row r="371">
+    <row r="371" customHeight="1" spans="6:6">
       <c r="F371" s="5"/>
     </row>
-    <row r="372">
+    <row r="372" customHeight="1" spans="6:6">
       <c r="F372" s="5"/>
     </row>
-    <row r="373">
+    <row r="373" customHeight="1" spans="6:6">
       <c r="F373" s="5"/>
     </row>
-    <row r="374">
+    <row r="374" customHeight="1" spans="6:6">
       <c r="F374" s="5"/>
     </row>
-    <row r="375">
+    <row r="375" customHeight="1" spans="6:6">
       <c r="F375" s="5"/>
     </row>
-    <row r="376">
+    <row r="376" customHeight="1" spans="6:6">
       <c r="F376" s="5"/>
     </row>
-    <row r="377">
+    <row r="377" customHeight="1" spans="6:6">
       <c r="F377" s="5"/>
     </row>
-    <row r="378">
+    <row r="378" customHeight="1" spans="6:6">
       <c r="F378" s="5"/>
     </row>
-    <row r="379">
+    <row r="379" customHeight="1" spans="6:6">
       <c r="F379" s="5"/>
     </row>
-    <row r="380">
+    <row r="380" customHeight="1" spans="6:6">
       <c r="F380" s="5"/>
     </row>
-    <row r="381">
+    <row r="381" customHeight="1" spans="6:6">
       <c r="F381" s="5"/>
     </row>
-    <row r="382">
+    <row r="382" customHeight="1" spans="6:6">
       <c r="F382" s="5"/>
     </row>
-    <row r="383">
+    <row r="383" customHeight="1" spans="6:6">
       <c r="F383" s="5"/>
     </row>
-    <row r="384">
+    <row r="384" customHeight="1" spans="6:6">
       <c r="F384" s="5"/>
     </row>
-    <row r="385">
+    <row r="385" customHeight="1" spans="6:6">
       <c r="F385" s="5"/>
     </row>
-    <row r="386">
+    <row r="386" customHeight="1" spans="6:6">
       <c r="F386" s="5"/>
     </row>
-    <row r="387">
+    <row r="387" customHeight="1" spans="6:6">
       <c r="F387" s="5"/>
     </row>
-    <row r="388">
+    <row r="388" customHeight="1" spans="6:6">
       <c r="F388" s="5"/>
     </row>
-    <row r="389">
+    <row r="389" customHeight="1" spans="6:6">
       <c r="F389" s="5"/>
     </row>
-    <row r="390">
+    <row r="390" customHeight="1" spans="6:6">
       <c r="F390" s="5"/>
     </row>
-    <row r="391">
+    <row r="391" customHeight="1" spans="6:6">
       <c r="F391" s="5"/>
     </row>
-    <row r="392">
+    <row r="392" customHeight="1" spans="6:6">
       <c r="F392" s="5"/>
     </row>
-    <row r="393">
+    <row r="393" customHeight="1" spans="6:6">
       <c r="F393" s="5"/>
     </row>
-    <row r="394">
+    <row r="394" customHeight="1" spans="6:6">
       <c r="F394" s="5"/>
     </row>
-    <row r="395">
+    <row r="395" customHeight="1" spans="6:6">
       <c r="F395" s="5"/>
     </row>
-    <row r="396">
+    <row r="396" customHeight="1" spans="6:6">
       <c r="F396" s="5"/>
     </row>
-    <row r="397">
+    <row r="397" customHeight="1" spans="6:6">
       <c r="F397" s="5"/>
     </row>
-    <row r="398">
+    <row r="398" customHeight="1" spans="6:6">
       <c r="F398" s="5"/>
     </row>
-    <row r="399">
+    <row r="399" customHeight="1" spans="6:6">
       <c r="F399" s="5"/>
     </row>
-    <row r="400">
+    <row r="400" customHeight="1" spans="6:6">
       <c r="F400" s="5"/>
     </row>
-    <row r="401">
+    <row r="401" customHeight="1" spans="6:6">
       <c r="F401" s="5"/>
     </row>
-    <row r="402">
+    <row r="402" customHeight="1" spans="6:6">
       <c r="F402" s="5"/>
     </row>
-    <row r="403">
+    <row r="403" customHeight="1" spans="6:6">
       <c r="F403" s="5"/>
     </row>
-    <row r="404">
+    <row r="404" customHeight="1" spans="6:6">
       <c r="F404" s="5"/>
     </row>
-    <row r="405">
+    <row r="405" customHeight="1" spans="6:6">
       <c r="F405" s="5"/>
     </row>
-    <row r="406">
+    <row r="406" customHeight="1" spans="6:6">
       <c r="F406" s="5"/>
     </row>
-    <row r="407">
+    <row r="407" customHeight="1" spans="6:6">
       <c r="F407" s="5"/>
     </row>
-    <row r="408">
+    <row r="408" customHeight="1" spans="6:6">
       <c r="F408" s="5"/>
     </row>
-    <row r="409">
+    <row r="409" customHeight="1" spans="6:6">
       <c r="F409" s="5"/>
     </row>
-    <row r="410">
+    <row r="410" customHeight="1" spans="6:6">
       <c r="F410" s="5"/>
     </row>
-    <row r="411">
+    <row r="411" customHeight="1" spans="6:6">
       <c r="F411" s="5"/>
     </row>
-    <row r="412">
+    <row r="412" customHeight="1" spans="6:6">
       <c r="F412" s="5"/>
     </row>
-    <row r="413">
+    <row r="413" customHeight="1" spans="6:6">
       <c r="F413" s="5"/>
     </row>
-    <row r="414">
+    <row r="414" customHeight="1" spans="6:6">
       <c r="F414" s="5"/>
     </row>
-    <row r="415">
+    <row r="415" customHeight="1" spans="6:6">
       <c r="F415" s="5"/>
     </row>
-    <row r="416">
+    <row r="416" customHeight="1" spans="6:6">
       <c r="F416" s="5"/>
     </row>
-    <row r="417">
+    <row r="417" customHeight="1" spans="6:6">
       <c r="F417" s="5"/>
     </row>
-    <row r="418">
+    <row r="418" customHeight="1" spans="6:6">
       <c r="F418" s="5"/>
     </row>
-    <row r="419">
+    <row r="419" customHeight="1" spans="6:6">
       <c r="F419" s="5"/>
     </row>
-    <row r="420">
+    <row r="420" customHeight="1" spans="6:6">
       <c r="F420" s="5"/>
     </row>
-    <row r="421">
+    <row r="421" customHeight="1" spans="6:6">
       <c r="F421" s="5"/>
     </row>
-    <row r="422">
+    <row r="422" customHeight="1" spans="6:6">
       <c r="F422" s="5"/>
     </row>
-    <row r="423">
+    <row r="423" customHeight="1" spans="6:6">
       <c r="F423" s="5"/>
     </row>
-    <row r="424">
+    <row r="424" customHeight="1" spans="6:6">
       <c r="F424" s="5"/>
     </row>
-    <row r="425">
+    <row r="425" customHeight="1" spans="6:6">
       <c r="F425" s="5"/>
     </row>
-    <row r="426">
+    <row r="426" customHeight="1" spans="6:6">
       <c r="F426" s="5"/>
     </row>
-    <row r="427">
+    <row r="427" customHeight="1" spans="6:6">
       <c r="F427" s="5"/>
     </row>
-    <row r="428">
+    <row r="428" customHeight="1" spans="6:6">
       <c r="F428" s="5"/>
     </row>
-    <row r="429">
+    <row r="429" customHeight="1" spans="6:6">
       <c r="F429" s="5"/>
     </row>
-    <row r="430">
+    <row r="430" customHeight="1" spans="6:6">
       <c r="F430" s="5"/>
     </row>
-    <row r="431">
+    <row r="431" customHeight="1" spans="6:6">
       <c r="F431" s="5"/>
     </row>
-    <row r="432">
+    <row r="432" customHeight="1" spans="6:6">
       <c r="F432" s="5"/>
     </row>
-    <row r="433">
+    <row r="433" customHeight="1" spans="6:6">
       <c r="F433" s="5"/>
     </row>
-    <row r="434">
+    <row r="434" customHeight="1" spans="6:6">
       <c r="F434" s="5"/>
     </row>
-    <row r="435">
+    <row r="435" customHeight="1" spans="6:6">
       <c r="F435" s="5"/>
     </row>
-    <row r="436">
+    <row r="436" customHeight="1" spans="6:6">
       <c r="F436" s="5"/>
     </row>
-    <row r="437">
+    <row r="437" customHeight="1" spans="6:6">
       <c r="F437" s="5"/>
     </row>
-    <row r="438">
+    <row r="438" customHeight="1" spans="6:6">
       <c r="F438" s="5"/>
     </row>
-    <row r="439">
+    <row r="439" customHeight="1" spans="6:6">
       <c r="F439" s="5"/>
     </row>
-    <row r="440">
+    <row r="440" customHeight="1" spans="6:6">
       <c r="F440" s="5"/>
     </row>
-    <row r="441">
+    <row r="441" customHeight="1" spans="6:6">
       <c r="F441" s="5"/>
     </row>
-    <row r="442">
+    <row r="442" customHeight="1" spans="6:6">
       <c r="F442" s="5"/>
     </row>
-    <row r="443">
+    <row r="443" customHeight="1" spans="6:6">
       <c r="F443" s="5"/>
     </row>
-    <row r="444">
+    <row r="444" customHeight="1" spans="6:6">
       <c r="F444" s="5"/>
     </row>
-    <row r="445">
+    <row r="445" customHeight="1" spans="6:6">
       <c r="F445" s="5"/>
     </row>
-    <row r="446">
+    <row r="446" customHeight="1" spans="6:6">
       <c r="F446" s="5"/>
     </row>
-    <row r="447">
+    <row r="447" customHeight="1" spans="6:6">
       <c r="F447" s="5"/>
     </row>
-    <row r="448">
+    <row r="448" customHeight="1" spans="6:6">
       <c r="F448" s="5"/>
     </row>
-    <row r="449">
+    <row r="449" customHeight="1" spans="6:6">
       <c r="F449" s="5"/>
     </row>
-    <row r="450">
+    <row r="450" customHeight="1" spans="6:6">
       <c r="F450" s="5"/>
     </row>
-    <row r="451">
+    <row r="451" customHeight="1" spans="6:6">
       <c r="F451" s="5"/>
     </row>
-    <row r="452">
+    <row r="452" customHeight="1" spans="6:6">
       <c r="F452" s="5"/>
     </row>
-    <row r="453">
+    <row r="453" customHeight="1" spans="6:6">
       <c r="F453" s="5"/>
     </row>
-    <row r="454">
+    <row r="454" customHeight="1" spans="6:6">
       <c r="F454" s="5"/>
     </row>
-    <row r="455">
+    <row r="455" customHeight="1" spans="6:6">
       <c r="F455" s="5"/>
     </row>
-    <row r="456">
+    <row r="456" customHeight="1" spans="6:6">
       <c r="F456" s="5"/>
     </row>
-    <row r="457">
+    <row r="457" customHeight="1" spans="6:6">
       <c r="F457" s="5"/>
     </row>
-    <row r="458">
+    <row r="458" customHeight="1" spans="6:6">
       <c r="F458" s="5"/>
     </row>
-    <row r="459">
+    <row r="459" customHeight="1" spans="6:6">
       <c r="F459" s="5"/>
     </row>
-    <row r="460">
+    <row r="460" customHeight="1" spans="6:6">
       <c r="F460" s="5"/>
     </row>
-    <row r="461">
+    <row r="461" customHeight="1" spans="6:6">
       <c r="F461" s="5"/>
     </row>
-    <row r="462">
+    <row r="462" customHeight="1" spans="6:6">
       <c r="F462" s="5"/>
     </row>
-    <row r="463">
+    <row r="463" customHeight="1" spans="6:6">
       <c r="F463" s="5"/>
     </row>
-    <row r="464">
+    <row r="464" customHeight="1" spans="6:6">
       <c r="F464" s="5"/>
     </row>
-    <row r="465">
+    <row r="465" customHeight="1" spans="6:6">
       <c r="F465" s="5"/>
     </row>
-    <row r="466">
+    <row r="466" customHeight="1" spans="6:6">
       <c r="F466" s="5"/>
     </row>
-    <row r="467">
+    <row r="467" customHeight="1" spans="6:6">
       <c r="F467" s="5"/>
     </row>
-    <row r="468">
+    <row r="468" customHeight="1" spans="6:6">
       <c r="F468" s="5"/>
     </row>
-    <row r="469">
+    <row r="469" customHeight="1" spans="6:6">
       <c r="F469" s="5"/>
     </row>
-    <row r="470">
+    <row r="470" customHeight="1" spans="6:6">
       <c r="F470" s="5"/>
     </row>
-    <row r="471">
+    <row r="471" customHeight="1" spans="6:6">
       <c r="F471" s="5"/>
     </row>
-    <row r="472">
+    <row r="472" customHeight="1" spans="6:6">
       <c r="F472" s="5"/>
     </row>
-    <row r="473">
+    <row r="473" customHeight="1" spans="6:6">
       <c r="F473" s="5"/>
     </row>
-    <row r="474">
+    <row r="474" customHeight="1" spans="6:6">
       <c r="F474" s="5"/>
     </row>
-    <row r="475">
+    <row r="475" customHeight="1" spans="6:6">
       <c r="F475" s="5"/>
     </row>
-    <row r="476">
+    <row r="476" customHeight="1" spans="6:6">
       <c r="F476" s="5"/>
     </row>
-    <row r="477">
+    <row r="477" customHeight="1" spans="6:6">
       <c r="F477" s="5"/>
     </row>
-    <row r="478">
+    <row r="478" customHeight="1" spans="6:6">
       <c r="F478" s="5"/>
     </row>
-    <row r="479">
+    <row r="479" customHeight="1" spans="6:6">
       <c r="F479" s="5"/>
     </row>
-    <row r="480">
+    <row r="480" customHeight="1" spans="6:6">
       <c r="F480" s="5"/>
     </row>
-    <row r="481">
+    <row r="481" customHeight="1" spans="6:6">
       <c r="F481" s="5"/>
     </row>
-    <row r="482">
+    <row r="482" customHeight="1" spans="6:6">
       <c r="F482" s="5"/>
     </row>
-    <row r="483">
+    <row r="483" customHeight="1" spans="6:6">
       <c r="F483" s="5"/>
     </row>
-    <row r="484">
+    <row r="484" customHeight="1" spans="6:6">
       <c r="F484" s="5"/>
     </row>
-    <row r="485">
+    <row r="485" customHeight="1" spans="6:6">
       <c r="F485" s="5"/>
     </row>
-    <row r="486">
+    <row r="486" customHeight="1" spans="6:6">
       <c r="F486" s="5"/>
     </row>
-    <row r="487">
+    <row r="487" customHeight="1" spans="6:6">
       <c r="F487" s="5"/>
     </row>
-    <row r="488">
+    <row r="488" customHeight="1" spans="6:6">
       <c r="F488" s="5"/>
     </row>
-    <row r="489">
+    <row r="489" customHeight="1" spans="6:6">
       <c r="F489" s="5"/>
     </row>
-    <row r="490">
+    <row r="490" customHeight="1" spans="6:6">
       <c r="F490" s="5"/>
     </row>
-    <row r="491">
+    <row r="491" customHeight="1" spans="6:6">
       <c r="F491" s="5"/>
     </row>
-    <row r="492">
+    <row r="492" customHeight="1" spans="6:6">
       <c r="F492" s="5"/>
     </row>
-    <row r="493">
+    <row r="493" customHeight="1" spans="6:6">
       <c r="F493" s="5"/>
     </row>
-    <row r="494">
+    <row r="494" customHeight="1" spans="6:6">
       <c r="F494" s="5"/>
     </row>
-    <row r="495">
+    <row r="495" customHeight="1" spans="6:6">
       <c r="F495" s="5"/>
     </row>
-    <row r="496">
+    <row r="496" customHeight="1" spans="6:6">
       <c r="F496" s="5"/>
     </row>
-    <row r="497">
+    <row r="497" customHeight="1" spans="6:6">
       <c r="F497" s="5"/>
     </row>
-    <row r="498">
+    <row r="498" customHeight="1" spans="6:6">
       <c r="F498" s="5"/>
     </row>
-    <row r="499">
+    <row r="499" customHeight="1" spans="6:6">
       <c r="F499" s="5"/>
     </row>
-    <row r="500">
+    <row r="500" customHeight="1" spans="6:6">
       <c r="F500" s="5"/>
     </row>
-    <row r="501">
+    <row r="501" customHeight="1" spans="6:6">
       <c r="F501" s="5"/>
     </row>
-    <row r="502">
+    <row r="502" customHeight="1" spans="6:6">
       <c r="F502" s="5"/>
     </row>
-    <row r="503">
+    <row r="503" customHeight="1" spans="6:6">
       <c r="F503" s="5"/>
     </row>
-    <row r="504">
+    <row r="504" customHeight="1" spans="6:6">
       <c r="F504" s="5"/>
     </row>
-    <row r="505">
+    <row r="505" customHeight="1" spans="6:6">
       <c r="F505" s="5"/>
     </row>
-    <row r="506">
+    <row r="506" customHeight="1" spans="6:6">
       <c r="F506" s="5"/>
     </row>
-    <row r="507">
+    <row r="507" customHeight="1" spans="6:6">
       <c r="F507" s="5"/>
     </row>
-    <row r="508">
+    <row r="508" customHeight="1" spans="6:6">
       <c r="F508" s="5"/>
     </row>
-    <row r="509">
+    <row r="509" customHeight="1" spans="6:6">
       <c r="F509" s="5"/>
     </row>
-    <row r="510">
+    <row r="510" customHeight="1" spans="6:6">
       <c r="F510" s="5"/>
     </row>
-    <row r="511">
+    <row r="511" customHeight="1" spans="6:6">
       <c r="F511" s="5"/>
     </row>
-    <row r="512">
+    <row r="512" customHeight="1" spans="6:6">
       <c r="F512" s="5"/>
     </row>
-    <row r="513">
+    <row r="513" customHeight="1" spans="6:6">
       <c r="F513" s="5"/>
     </row>
-    <row r="514">
+    <row r="514" customHeight="1" spans="6:6">
       <c r="F514" s="5"/>
     </row>
-    <row r="515">
+    <row r="515" customHeight="1" spans="6:6">
       <c r="F515" s="5"/>
     </row>
-    <row r="516">
+    <row r="516" customHeight="1" spans="6:6">
       <c r="F516" s="5"/>
     </row>
-    <row r="517">
+    <row r="517" customHeight="1" spans="6:6">
       <c r="F517" s="5"/>
     </row>
-    <row r="518">
+    <row r="518" customHeight="1" spans="6:6">
       <c r="F518" s="5"/>
     </row>
-    <row r="519">
+    <row r="519" customHeight="1" spans="6:6">
       <c r="F519" s="5"/>
     </row>
-    <row r="520">
+    <row r="520" customHeight="1" spans="6:6">
       <c r="F520" s="5"/>
     </row>
-    <row r="521">
+    <row r="521" customHeight="1" spans="6:6">
       <c r="F521" s="5"/>
     </row>
-    <row r="522">
+    <row r="522" customHeight="1" spans="6:6">
       <c r="F522" s="5"/>
     </row>
-    <row r="523">
+    <row r="523" customHeight="1" spans="6:6">
       <c r="F523" s="5"/>
     </row>
-    <row r="524">
+    <row r="524" customHeight="1" spans="6:6">
       <c r="F524" s="5"/>
     </row>
-    <row r="525">
+    <row r="525" customHeight="1" spans="6:6">
       <c r="F525" s="5"/>
     </row>
-    <row r="526">
+    <row r="526" customHeight="1" spans="6:6">
       <c r="F526" s="5"/>
     </row>
-    <row r="527">
+    <row r="527" customHeight="1" spans="6:6">
       <c r="F527" s="5"/>
     </row>
-    <row r="528">
+    <row r="528" customHeight="1" spans="6:6">
       <c r="F528" s="5"/>
     </row>
-    <row r="529">
+    <row r="529" customHeight="1" spans="6:6">
       <c r="F529" s="5"/>
     </row>
-    <row r="530">
+    <row r="530" customHeight="1" spans="6:6">
       <c r="F530" s="5"/>
     </row>
-    <row r="531">
+    <row r="531" customHeight="1" spans="6:6">
       <c r="F531" s="5"/>
     </row>
-    <row r="532">
+    <row r="532" customHeight="1" spans="6:6">
       <c r="F532" s="5"/>
     </row>
-    <row r="533">
+    <row r="533" customHeight="1" spans="6:6">
       <c r="F533" s="5"/>
     </row>
-    <row r="534">
+    <row r="534" customHeight="1" spans="6:6">
       <c r="F534" s="5"/>
     </row>
-    <row r="535">
+    <row r="535" customHeight="1" spans="6:6">
       <c r="F535" s="5"/>
     </row>
-    <row r="536">
+    <row r="536" customHeight="1" spans="6:6">
       <c r="F536" s="5"/>
     </row>
-    <row r="537">
+    <row r="537" customHeight="1" spans="6:6">
       <c r="F537" s="5"/>
     </row>
-    <row r="538">
+    <row r="538" customHeight="1" spans="6:6">
       <c r="F538" s="5"/>
     </row>
-    <row r="539">
+    <row r="539" customHeight="1" spans="6:6">
       <c r="F539" s="5"/>
     </row>
-    <row r="540">
+    <row r="540" customHeight="1" spans="6:6">
       <c r="F540" s="5"/>
     </row>
-    <row r="541">
+    <row r="541" customHeight="1" spans="6:6">
       <c r="F541" s="5"/>
     </row>
-    <row r="542">
+    <row r="542" customHeight="1" spans="6:6">
       <c r="F542" s="5"/>
     </row>
-    <row r="543">
+    <row r="543" customHeight="1" spans="6:6">
       <c r="F543" s="5"/>
     </row>
-    <row r="544">
+    <row r="544" customHeight="1" spans="6:6">
       <c r="F544" s="5"/>
     </row>
-    <row r="545">
+    <row r="545" customHeight="1" spans="6:6">
       <c r="F545" s="5"/>
     </row>
-    <row r="546">
+    <row r="546" customHeight="1" spans="6:6">
       <c r="F546" s="5"/>
     </row>
-    <row r="547">
+    <row r="547" customHeight="1" spans="6:6">
       <c r="F547" s="5"/>
     </row>
-    <row r="548">
+    <row r="548" customHeight="1" spans="6:6">
       <c r="F548" s="5"/>
     </row>
-    <row r="549">
+    <row r="549" customHeight="1" spans="6:6">
       <c r="F549" s="5"/>
     </row>
-    <row r="550">
+    <row r="550" customHeight="1" spans="6:6">
       <c r="F550" s="5"/>
     </row>
-    <row r="551">
+    <row r="551" customHeight="1" spans="6:6">
       <c r="F551" s="5"/>
     </row>
-    <row r="552">
+    <row r="552" customHeight="1" spans="6:6">
       <c r="F552" s="5"/>
     </row>
-    <row r="553">
+    <row r="553" customHeight="1" spans="6:6">
       <c r="F553" s="5"/>
     </row>
-    <row r="554">
+    <row r="554" customHeight="1" spans="6:6">
       <c r="F554" s="5"/>
     </row>
-    <row r="555">
+    <row r="555" customHeight="1" spans="6:6">
       <c r="F555" s="5"/>
     </row>
-    <row r="556">
+    <row r="556" customHeight="1" spans="6:6">
       <c r="F556" s="5"/>
     </row>
-    <row r="557">
+    <row r="557" customHeight="1" spans="6:6">
       <c r="F557" s="5"/>
     </row>
-    <row r="558">
+    <row r="558" customHeight="1" spans="6:6">
       <c r="F558" s="5"/>
     </row>
-    <row r="559">
+    <row r="559" customHeight="1" spans="6:6">
       <c r="F559" s="5"/>
     </row>
-    <row r="560">
+    <row r="560" customHeight="1" spans="6:6">
       <c r="F560" s="5"/>
     </row>
-    <row r="561">
+    <row r="561" customHeight="1" spans="6:6">
       <c r="F561" s="5"/>
     </row>
-    <row r="562">
+    <row r="562" customHeight="1" spans="6:6">
       <c r="F562" s="5"/>
     </row>
-    <row r="563">
+    <row r="563" customHeight="1" spans="6:6">
       <c r="F563" s="5"/>
     </row>
-    <row r="564">
+    <row r="564" customHeight="1" spans="6:6">
       <c r="F564" s="5"/>
     </row>
-    <row r="565">
+    <row r="565" customHeight="1" spans="6:6">
       <c r="F565" s="5"/>
     </row>
-    <row r="566">
+    <row r="566" customHeight="1" spans="6:6">
       <c r="F566" s="5"/>
     </row>
-    <row r="567">
+    <row r="567" customHeight="1" spans="6:6">
       <c r="F567" s="5"/>
     </row>
-    <row r="568">
+    <row r="568" customHeight="1" spans="6:6">
       <c r="F568" s="5"/>
     </row>
-    <row r="569">
+    <row r="569" customHeight="1" spans="6:6">
       <c r="F569" s="5"/>
     </row>
-    <row r="570">
+    <row r="570" customHeight="1" spans="6:6">
       <c r="F570" s="5"/>
     </row>
-    <row r="571">
+    <row r="571" customHeight="1" spans="6:6">
       <c r="F571" s="5"/>
     </row>
-    <row r="572">
+    <row r="572" customHeight="1" spans="6:6">
       <c r="F572" s="5"/>
     </row>
-    <row r="573">
+    <row r="573" customHeight="1" spans="6:6">
       <c r="F573" s="5"/>
     </row>
-    <row r="574">
+    <row r="574" customHeight="1" spans="6:6">
       <c r="F574" s="5"/>
     </row>
-    <row r="575">
+    <row r="575" customHeight="1" spans="6:6">
       <c r="F575" s="5"/>
     </row>
-    <row r="576">
+    <row r="576" customHeight="1" spans="6:6">
       <c r="F576" s="5"/>
     </row>
-    <row r="577">
+    <row r="577" customHeight="1" spans="6:6">
       <c r="F577" s="5"/>
     </row>
-    <row r="578">
+    <row r="578" customHeight="1" spans="6:6">
       <c r="F578" s="5"/>
     </row>
-    <row r="579">
+    <row r="579" customHeight="1" spans="6:6">
       <c r="F579" s="5"/>
     </row>
-    <row r="580">
+    <row r="580" customHeight="1" spans="6:6">
       <c r="F580" s="5"/>
     </row>
-    <row r="581">
+    <row r="581" customHeight="1" spans="6:6">
       <c r="F581" s="5"/>
     </row>
-    <row r="582">
+    <row r="582" customHeight="1" spans="6:6">
       <c r="F582" s="5"/>
     </row>
-    <row r="583">
+    <row r="583" customHeight="1" spans="6:6">
       <c r="F583" s="5"/>
     </row>
-    <row r="584">
+    <row r="584" customHeight="1" spans="6:6">
       <c r="F584" s="5"/>
     </row>
-    <row r="585">
+    <row r="585" customHeight="1" spans="6:6">
       <c r="F585" s="5"/>
     </row>
-    <row r="586">
+    <row r="586" customHeight="1" spans="6:6">
       <c r="F586" s="5"/>
     </row>
-    <row r="587">
+    <row r="587" customHeight="1" spans="6:6">
       <c r="F587" s="5"/>
     </row>
-    <row r="588">
+    <row r="588" customHeight="1" spans="6:6">
       <c r="F588" s="5"/>
     </row>
-    <row r="589">
+    <row r="589" customHeight="1" spans="6:6">
       <c r="F589" s="5"/>
     </row>
-    <row r="590">
+    <row r="590" customHeight="1" spans="6:6">
       <c r="F590" s="5"/>
     </row>
-    <row r="591">
+    <row r="591" customHeight="1" spans="6:6">
       <c r="F591" s="5"/>
     </row>
-    <row r="592">
+    <row r="592" customHeight="1" spans="6:6">
       <c r="F592" s="5"/>
     </row>
-    <row r="593">
+    <row r="593" customHeight="1" spans="6:6">
       <c r="F593" s="5"/>
     </row>
-    <row r="594">
+    <row r="594" customHeight="1" spans="6:6">
       <c r="F594" s="5"/>
     </row>
-    <row r="595">
+    <row r="595" customHeight="1" spans="6:6">
       <c r="F595" s="5"/>
     </row>
-    <row r="596">
+    <row r="596" customHeight="1" spans="6:6">
       <c r="F596" s="5"/>
     </row>
-    <row r="597">
+    <row r="597" customHeight="1" spans="6:6">
       <c r="F597" s="5"/>
     </row>
-    <row r="598">
+    <row r="598" customHeight="1" spans="6:6">
       <c r="F598" s="5"/>
     </row>
-    <row r="599">
+    <row r="599" customHeight="1" spans="6:6">
       <c r="F599" s="5"/>
     </row>
-    <row r="600">
+    <row r="600" customHeight="1" spans="6:6">
       <c r="F600" s="5"/>
     </row>
-    <row r="601">
+    <row r="601" customHeight="1" spans="6:6">
       <c r="F601" s="5"/>
     </row>
-    <row r="602">
+    <row r="602" customHeight="1" spans="6:6">
       <c r="F602" s="5"/>
     </row>
-    <row r="603">
+    <row r="603" customHeight="1" spans="6:6">
       <c r="F603" s="5"/>
     </row>
-    <row r="604">
+    <row r="604" customHeight="1" spans="6:6">
       <c r="F604" s="5"/>
     </row>
-    <row r="605">
+    <row r="605" customHeight="1" spans="6:6">
       <c r="F605" s="5"/>
     </row>
-    <row r="606">
+    <row r="606" customHeight="1" spans="6:6">
       <c r="F606" s="5"/>
     </row>
-    <row r="607">
+    <row r="607" customHeight="1" spans="6:6">
       <c r="F607" s="5"/>
     </row>
-    <row r="608">
+    <row r="608" customHeight="1" spans="6:6">
       <c r="F608" s="5"/>
     </row>
-    <row r="609">
+    <row r="609" customHeight="1" spans="6:6">
       <c r="F609" s="5"/>
     </row>
-    <row r="610">
+    <row r="610" customHeight="1" spans="6:6">
       <c r="F610" s="5"/>
     </row>
-    <row r="611">
+    <row r="611" customHeight="1" spans="6:6">
       <c r="F611" s="5"/>
     </row>
-    <row r="612">
+    <row r="612" customHeight="1" spans="6:6">
       <c r="F612" s="5"/>
     </row>
-    <row r="613">
+    <row r="613" customHeight="1" spans="6:6">
       <c r="F613" s="5"/>
     </row>
-    <row r="614">
+    <row r="614" customHeight="1" spans="6:6">
       <c r="F614" s="5"/>
     </row>
-    <row r="615">
+    <row r="615" customHeight="1" spans="6:6">
       <c r="F615" s="5"/>
     </row>
-    <row r="616">
+    <row r="616" customHeight="1" spans="6:6">
       <c r="F616" s="5"/>
     </row>
-    <row r="617">
+    <row r="617" customHeight="1" spans="6:6">
       <c r="F617" s="5"/>
     </row>
-    <row r="618">
+    <row r="618" customHeight="1" spans="6:6">
       <c r="F618" s="5"/>
     </row>
-    <row r="619">
+    <row r="619" customHeight="1" spans="6:6">
       <c r="F619" s="5"/>
     </row>
-    <row r="620">
+    <row r="620" customHeight="1" spans="6:6">
       <c r="F620" s="5"/>
     </row>
-    <row r="621">
+    <row r="621" customHeight="1" spans="6:6">
       <c r="F621" s="5"/>
     </row>
-    <row r="622">
+    <row r="622" customHeight="1" spans="6:6">
       <c r="F622" s="5"/>
     </row>
-    <row r="623">
+    <row r="623" customHeight="1" spans="6:6">
       <c r="F623" s="5"/>
     </row>
-    <row r="624">
+    <row r="624" customHeight="1" spans="6:6">
       <c r="F624" s="5"/>
     </row>
-    <row r="625">
+    <row r="625" customHeight="1" spans="6:6">
       <c r="F625" s="5"/>
     </row>
-    <row r="626">
+    <row r="626" customHeight="1" spans="6:6">
       <c r="F626" s="5"/>
     </row>
-    <row r="627">
+    <row r="627" customHeight="1" spans="6:6">
       <c r="F627" s="5"/>
     </row>
-    <row r="628">
+    <row r="628" customHeight="1" spans="6:6">
       <c r="F628" s="5"/>
     </row>
-    <row r="629">
+    <row r="629" customHeight="1" spans="6:6">
       <c r="F629" s="5"/>
     </row>
-    <row r="630">
+    <row r="630" customHeight="1" spans="6:6">
       <c r="F630" s="5"/>
     </row>
-    <row r="631">
+    <row r="631" customHeight="1" spans="6:6">
       <c r="F631" s="5"/>
     </row>
-    <row r="632">
+    <row r="632" customHeight="1" spans="6:6">
       <c r="F632" s="5"/>
     </row>
-    <row r="633">
+    <row r="633" customHeight="1" spans="6:6">
       <c r="F633" s="5"/>
     </row>
-    <row r="634">
+    <row r="634" customHeight="1" spans="6:6">
       <c r="F634" s="5"/>
     </row>
-    <row r="635">
+    <row r="635" customHeight="1" spans="6:6">
       <c r="F635" s="5"/>
     </row>
-    <row r="636">
+    <row r="636" customHeight="1" spans="6:6">
       <c r="F636" s="5"/>
     </row>
-    <row r="637">
+    <row r="637" customHeight="1" spans="6:6">
       <c r="F637" s="5"/>
     </row>
-    <row r="638">
+    <row r="638" customHeight="1" spans="6:6">
       <c r="F638" s="5"/>
     </row>
-    <row r="639">
+    <row r="639" customHeight="1" spans="6:6">
       <c r="F639" s="5"/>
     </row>
-    <row r="640">
+    <row r="640" customHeight="1" spans="6:6">
       <c r="F640" s="5"/>
     </row>
-    <row r="641">
+    <row r="641" customHeight="1" spans="6:6">
       <c r="F641" s="5"/>
     </row>
-    <row r="642">
+    <row r="642" customHeight="1" spans="6:6">
       <c r="F642" s="5"/>
     </row>
-    <row r="643">
+    <row r="643" customHeight="1" spans="6:6">
       <c r="F643" s="5"/>
     </row>
-    <row r="644">
+    <row r="644" customHeight="1" spans="6:6">
       <c r="F644" s="5"/>
     </row>
-    <row r="645">
+    <row r="645" customHeight="1" spans="6:6">
       <c r="F645" s="5"/>
     </row>
-    <row r="646">
+    <row r="646" customHeight="1" spans="6:6">
       <c r="F646" s="5"/>
     </row>
-    <row r="647">
+    <row r="647" customHeight="1" spans="6:6">
       <c r="F647" s="5"/>
     </row>
-    <row r="648">
+    <row r="648" customHeight="1" spans="6:6">
       <c r="F648" s="5"/>
     </row>
-    <row r="649">
+    <row r="649" customHeight="1" spans="6:6">
       <c r="F649" s="5"/>
     </row>
-    <row r="650">
+    <row r="650" customHeight="1" spans="6:6">
       <c r="F650" s="5"/>
     </row>
-    <row r="651">
+    <row r="651" customHeight="1" spans="6:6">
       <c r="F651" s="5"/>
     </row>
-    <row r="652">
+    <row r="652" customHeight="1" spans="6:6">
       <c r="F652" s="5"/>
     </row>
-    <row r="653">
+    <row r="653" customHeight="1" spans="6:6">
       <c r="F653" s="5"/>
     </row>
-    <row r="654">
+    <row r="654" customHeight="1" spans="6:6">
       <c r="F654" s="5"/>
     </row>
-    <row r="655">
+    <row r="655" customHeight="1" spans="6:6">
       <c r="F655" s="5"/>
     </row>
-    <row r="656">
+    <row r="656" customHeight="1" spans="6:6">
       <c r="F656" s="5"/>
     </row>
-    <row r="657">
+    <row r="657" customHeight="1" spans="6:6">
       <c r="F657" s="5"/>
     </row>
-    <row r="658">
+    <row r="658" customHeight="1" spans="6:6">
       <c r="F658" s="5"/>
     </row>
-    <row r="659">
+    <row r="659" customHeight="1" spans="6:6">
       <c r="F659" s="5"/>
     </row>
-    <row r="660">
+    <row r="660" customHeight="1" spans="6:6">
       <c r="F660" s="5"/>
     </row>
-    <row r="661">
+    <row r="661" customHeight="1" spans="6:6">
       <c r="F661" s="5"/>
     </row>
-    <row r="662">
+    <row r="662" customHeight="1" spans="6:6">
       <c r="F662" s="5"/>
     </row>
-    <row r="663">
+    <row r="663" customHeight="1" spans="6:6">
       <c r="F663" s="5"/>
     </row>
-    <row r="664">
+    <row r="664" customHeight="1" spans="6:6">
       <c r="F664" s="5"/>
     </row>
-    <row r="665">
+    <row r="665" customHeight="1" spans="6:6">
       <c r="F665" s="5"/>
     </row>
-    <row r="666">
+    <row r="666" customHeight="1" spans="6:6">
       <c r="F666" s="5"/>
     </row>
-    <row r="667">
+    <row r="667" customHeight="1" spans="6:6">
       <c r="F667" s="5"/>
     </row>
-    <row r="668">
+    <row r="668" customHeight="1" spans="6:6">
       <c r="F668" s="5"/>
     </row>
-    <row r="669">
+    <row r="669" customHeight="1" spans="6:6">
       <c r="F669" s="5"/>
     </row>
-    <row r="670">
+    <row r="670" customHeight="1" spans="6:6">
       <c r="F670" s="5"/>
     </row>
-    <row r="671">
+    <row r="671" customHeight="1" spans="6:6">
       <c r="F671" s="5"/>
     </row>
-    <row r="672">
+    <row r="672" customHeight="1" spans="6:6">
       <c r="F672" s="5"/>
     </row>
-    <row r="673">
+    <row r="673" customHeight="1" spans="6:6">
       <c r="F673" s="5"/>
     </row>
-    <row r="674">
+    <row r="674" customHeight="1" spans="6:6">
       <c r="F674" s="5"/>
     </row>
-    <row r="675">
+    <row r="675" customHeight="1" spans="6:6">
       <c r="F675" s="5"/>
     </row>
-    <row r="676">
+    <row r="676" customHeight="1" spans="6:6">
       <c r="F676" s="5"/>
     </row>
-    <row r="677">
+    <row r="677" customHeight="1" spans="6:6">
       <c r="F677" s="5"/>
     </row>
-    <row r="678">
+    <row r="678" customHeight="1" spans="6:6">
       <c r="F678" s="5"/>
     </row>
-    <row r="679">
+    <row r="679" customHeight="1" spans="6:6">
       <c r="F679" s="5"/>
     </row>
-    <row r="680">
+    <row r="680" customHeight="1" spans="6:6">
       <c r="F680" s="5"/>
     </row>
-    <row r="681">
+    <row r="681" customHeight="1" spans="6:6">
       <c r="F681" s="5"/>
     </row>
-    <row r="682">
+    <row r="682" customHeight="1" spans="6:6">
       <c r="F682" s="5"/>
     </row>
-    <row r="683">
+    <row r="683" customHeight="1" spans="6:6">
       <c r="F683" s="5"/>
     </row>
-    <row r="684">
+    <row r="684" customHeight="1" spans="6:6">
       <c r="F684" s="5"/>
     </row>
-    <row r="685">
+    <row r="685" customHeight="1" spans="6:6">
       <c r="F685" s="5"/>
     </row>
-    <row r="686">
+    <row r="686" customHeight="1" spans="6:6">
       <c r="F686" s="5"/>
     </row>
-    <row r="687">
+    <row r="687" customHeight="1" spans="6:6">
       <c r="F687" s="5"/>
     </row>
-    <row r="688">
+    <row r="688" customHeight="1" spans="6:6">
       <c r="F688" s="5"/>
     </row>
-    <row r="689">
+    <row r="689" customHeight="1" spans="6:6">
       <c r="F689" s="5"/>
     </row>
-    <row r="690">
+    <row r="690" customHeight="1" spans="6:6">
       <c r="F690" s="5"/>
     </row>
-    <row r="691">
+    <row r="691" customHeight="1" spans="6:6">
       <c r="F691" s="5"/>
     </row>
-    <row r="692">
+    <row r="692" customHeight="1" spans="6:6">
       <c r="F692" s="5"/>
     </row>
-    <row r="693">
+    <row r="693" customHeight="1" spans="6:6">
       <c r="F693" s="5"/>
     </row>
-    <row r="694">
+    <row r="694" customHeight="1" spans="6:6">
       <c r="F694" s="5"/>
     </row>
-    <row r="695">
+    <row r="695" customHeight="1" spans="6:6">
       <c r="F695" s="5"/>
     </row>
-    <row r="696">
+    <row r="696" customHeight="1" spans="6:6">
       <c r="F696" s="5"/>
     </row>
-    <row r="697">
+    <row r="697" customHeight="1" spans="6:6">
       <c r="F697" s="5"/>
     </row>
-    <row r="698">
+    <row r="698" customHeight="1" spans="6:6">
       <c r="F698" s="5"/>
     </row>
-    <row r="699">
+    <row r="699" customHeight="1" spans="6:6">
       <c r="F699" s="5"/>
     </row>
-    <row r="700">
+    <row r="700" customHeight="1" spans="6:6">
       <c r="F700" s="5"/>
     </row>
-    <row r="701">
+    <row r="701" customHeight="1" spans="6:6">
       <c r="F701" s="5"/>
     </row>
-    <row r="702">
+    <row r="702" customHeight="1" spans="6:6">
       <c r="F702" s="5"/>
     </row>
-    <row r="703">
+    <row r="703" customHeight="1" spans="6:6">
       <c r="F703" s="5"/>
     </row>
-    <row r="704">
+    <row r="704" customHeight="1" spans="6:6">
       <c r="F704" s="5"/>
     </row>
-    <row r="705">
+    <row r="705" customHeight="1" spans="6:6">
       <c r="F705" s="5"/>
     </row>
-    <row r="706">
+    <row r="706" customHeight="1" spans="6:6">
       <c r="F706" s="5"/>
     </row>
-    <row r="707">
+    <row r="707" customHeight="1" spans="6:6">
       <c r="F707" s="5"/>
     </row>
-    <row r="708">
+    <row r="708" customHeight="1" spans="6:6">
       <c r="F708" s="5"/>
     </row>
-    <row r="709">
+    <row r="709" customHeight="1" spans="6:6">
       <c r="F709" s="5"/>
     </row>
-    <row r="710">
+    <row r="710" customHeight="1" spans="6:6">
       <c r="F710" s="5"/>
     </row>
-    <row r="711">
+    <row r="711" customHeight="1" spans="6:6">
       <c r="F711" s="5"/>
     </row>
-    <row r="712">
+    <row r="712" customHeight="1" spans="6:6">
       <c r="F712" s="5"/>
     </row>
-    <row r="713">
+    <row r="713" customHeight="1" spans="6:6">
       <c r="F713" s="5"/>
     </row>
-    <row r="714">
+    <row r="714" customHeight="1" spans="6:6">
       <c r="F714" s="5"/>
     </row>
-    <row r="715">
+    <row r="715" customHeight="1" spans="6:6">
       <c r="F715" s="5"/>
     </row>
-    <row r="716">
+    <row r="716" customHeight="1" spans="6:6">
       <c r="F716" s="5"/>
     </row>
-    <row r="717">
+    <row r="717" customHeight="1" spans="6:6">
       <c r="F717" s="5"/>
     </row>
-    <row r="718">
+    <row r="718" customHeight="1" spans="6:6">
       <c r="F718" s="5"/>
     </row>
-    <row r="719">
+    <row r="719" customHeight="1" spans="6:6">
       <c r="F719" s="5"/>
     </row>
-    <row r="720">
+    <row r="720" customHeight="1" spans="6:6">
       <c r="F720" s="5"/>
     </row>
-    <row r="721">
+    <row r="721" customHeight="1" spans="6:6">
       <c r="F721" s="5"/>
     </row>
-    <row r="722">
+    <row r="722" customHeight="1" spans="6:6">
       <c r="F722" s="5"/>
     </row>
-    <row r="723">
+    <row r="723" customHeight="1" spans="6:6">
       <c r="F723" s="5"/>
     </row>
-    <row r="724">
+    <row r="724" customHeight="1" spans="6:6">
       <c r="F724" s="5"/>
     </row>
-    <row r="725">
+    <row r="725" customHeight="1" spans="6:6">
       <c r="F725" s="5"/>
     </row>
-    <row r="726">
+    <row r="726" customHeight="1" spans="6:6">
       <c r="F726" s="5"/>
     </row>
-    <row r="727">
+    <row r="727" customHeight="1" spans="6:6">
       <c r="F727" s="5"/>
     </row>
-    <row r="728">
+    <row r="728" customHeight="1" spans="6:6">
       <c r="F728" s="5"/>
     </row>
-    <row r="729">
+    <row r="729" customHeight="1" spans="6:6">
       <c r="F729" s="5"/>
     </row>
-    <row r="730">
+    <row r="730" customHeight="1" spans="6:6">
       <c r="F730" s="5"/>
     </row>
-    <row r="731">
+    <row r="731" customHeight="1" spans="6:6">
       <c r="F731" s="5"/>
     </row>
-    <row r="732">
+    <row r="732" customHeight="1" spans="6:6">
       <c r="F732" s="5"/>
     </row>
-    <row r="733">
+    <row r="733" customHeight="1" spans="6:6">
       <c r="F733" s="5"/>
     </row>
-    <row r="734">
+    <row r="734" customHeight="1" spans="6:6">
       <c r="F734" s="5"/>
     </row>
-    <row r="735">
+    <row r="735" customHeight="1" spans="6:6">
       <c r="F735" s="5"/>
     </row>
-    <row r="736">
+    <row r="736" customHeight="1" spans="6:6">
       <c r="F736" s="5"/>
     </row>
-    <row r="737">
+    <row r="737" customHeight="1" spans="6:6">
       <c r="F737" s="5"/>
     </row>
-    <row r="738">
+    <row r="738" customHeight="1" spans="6:6">
       <c r="F738" s="5"/>
     </row>
-    <row r="739">
+    <row r="739" customHeight="1" spans="6:6">
       <c r="F739" s="5"/>
     </row>
-    <row r="740">
+    <row r="740" customHeight="1" spans="6:6">
       <c r="F740" s="5"/>
     </row>
-    <row r="741">
+    <row r="741" customHeight="1" spans="6:6">
       <c r="F741" s="5"/>
     </row>
-    <row r="742">
+    <row r="742" customHeight="1" spans="6:6">
       <c r="F742" s="5"/>
     </row>
-    <row r="743">
+    <row r="743" customHeight="1" spans="6:6">
       <c r="F743" s="5"/>
     </row>
-    <row r="744">
+    <row r="744" customHeight="1" spans="6:6">
       <c r="F744" s="5"/>
     </row>
-    <row r="745">
+    <row r="745" customHeight="1" spans="6:6">
       <c r="F745" s="5"/>
     </row>
-    <row r="746">
+    <row r="746" customHeight="1" spans="6:6">
       <c r="F746" s="5"/>
     </row>
-    <row r="747">
+    <row r="747" customHeight="1" spans="6:6">
       <c r="F747" s="5"/>
     </row>
-    <row r="748">
+    <row r="748" customHeight="1" spans="6:6">
       <c r="F748" s="5"/>
     </row>
-    <row r="749">
+    <row r="749" customHeight="1" spans="6:6">
       <c r="F749" s="5"/>
     </row>
-    <row r="750">
+    <row r="750" customHeight="1" spans="6:6">
       <c r="F750" s="5"/>
     </row>
-    <row r="751">
+    <row r="751" customHeight="1" spans="6:6">
       <c r="F751" s="5"/>
     </row>
-    <row r="752">
+    <row r="752" customHeight="1" spans="6:6">
       <c r="F752" s="5"/>
     </row>
-    <row r="753">
+    <row r="753" customHeight="1" spans="6:6">
       <c r="F753" s="5"/>
     </row>
-    <row r="754">
+    <row r="754" customHeight="1" spans="6:6">
       <c r="F754" s="5"/>
     </row>
-    <row r="755">
+    <row r="755" customHeight="1" spans="6:6">
       <c r="F755" s="5"/>
     </row>
-    <row r="756">
+    <row r="756" customHeight="1" spans="6:6">
       <c r="F756" s="5"/>
     </row>
-    <row r="757">
+    <row r="757" customHeight="1" spans="6:6">
       <c r="F757" s="5"/>
     </row>
-    <row r="758">
+    <row r="758" customHeight="1" spans="6:6">
       <c r="F758" s="5"/>
     </row>
-    <row r="759">
+    <row r="759" customHeight="1" spans="6:6">
       <c r="F759" s="5"/>
     </row>
-    <row r="760">
+    <row r="760" customHeight="1" spans="6:6">
       <c r="F760" s="5"/>
     </row>
-    <row r="761">
+    <row r="761" customHeight="1" spans="6:6">
       <c r="F761" s="5"/>
     </row>
-    <row r="762">
+    <row r="762" customHeight="1" spans="6:6">
       <c r="F762" s="5"/>
     </row>
-    <row r="763">
+    <row r="763" customHeight="1" spans="6:6">
       <c r="F763" s="5"/>
     </row>
-    <row r="764">
+    <row r="764" customHeight="1" spans="6:6">
       <c r="F764" s="5"/>
     </row>
-    <row r="765">
+    <row r="765" customHeight="1" spans="6:6">
       <c r="F765" s="5"/>
     </row>
-    <row r="766">
+    <row r="766" customHeight="1" spans="6:6">
       <c r="F766" s="5"/>
     </row>
-    <row r="767">
+    <row r="767" customHeight="1" spans="6:6">
       <c r="F767" s="5"/>
     </row>
-    <row r="768">
+    <row r="768" customHeight="1" spans="6:6">
       <c r="F768" s="5"/>
     </row>
-    <row r="769">
+    <row r="769" customHeight="1" spans="6:6">
       <c r="F769" s="5"/>
     </row>
-    <row r="770">
+    <row r="770" customHeight="1" spans="6:6">
       <c r="F770" s="5"/>
     </row>
-    <row r="771">
+    <row r="771" customHeight="1" spans="6:6">
       <c r="F771" s="5"/>
     </row>
-    <row r="772">
+    <row r="772" customHeight="1" spans="6:6">
       <c r="F772" s="5"/>
     </row>
-    <row r="773">
+    <row r="773" customHeight="1" spans="6:6">
       <c r="F773" s="5"/>
     </row>
-    <row r="774">
+    <row r="774" customHeight="1" spans="6:6">
       <c r="F774" s="5"/>
     </row>
-    <row r="775">
+    <row r="775" customHeight="1" spans="6:6">
       <c r="F775" s="5"/>
     </row>
-    <row r="776">
+    <row r="776" customHeight="1" spans="6:6">
       <c r="F776" s="5"/>
     </row>
-    <row r="777">
+    <row r="777" customHeight="1" spans="6:6">
       <c r="F777" s="5"/>
     </row>
-    <row r="778">
+    <row r="778" customHeight="1" spans="6:6">
       <c r="F778" s="5"/>
     </row>
-    <row r="779">
+    <row r="779" customHeight="1" spans="6:6">
       <c r="F779" s="5"/>
     </row>
-    <row r="780">
+    <row r="780" customHeight="1" spans="6:6">
       <c r="F780" s="5"/>
     </row>
-    <row r="781">
+    <row r="781" customHeight="1" spans="6:6">
       <c r="F781" s="5"/>
     </row>
-    <row r="782">
+    <row r="782" customHeight="1" spans="6:6">
       <c r="F782" s="5"/>
     </row>
-    <row r="783">
+    <row r="783" customHeight="1" spans="6:6">
       <c r="F783" s="5"/>
     </row>
-    <row r="784">
+    <row r="784" customHeight="1" spans="6:6">
       <c r="F784" s="5"/>
     </row>
-    <row r="785">
+    <row r="785" customHeight="1" spans="6:6">
       <c r="F785" s="5"/>
     </row>
-    <row r="786">
+    <row r="786" customHeight="1" spans="6:6">
       <c r="F786" s="5"/>
     </row>
-    <row r="787">
+    <row r="787" customHeight="1" spans="6:6">
       <c r="F787" s="5"/>
     </row>
-    <row r="788">
+    <row r="788" customHeight="1" spans="6:6">
       <c r="F788" s="5"/>
     </row>
-    <row r="789">
+    <row r="789" customHeight="1" spans="6:6">
       <c r="F789" s="5"/>
     </row>
-    <row r="790">
+    <row r="790" customHeight="1" spans="6:6">
       <c r="F790" s="5"/>
     </row>
-    <row r="791">
+    <row r="791" customHeight="1" spans="6:6">
       <c r="F791" s="5"/>
     </row>
-    <row r="792">
+    <row r="792" customHeight="1" spans="6:6">
       <c r="F792" s="5"/>
     </row>
-    <row r="793">
+    <row r="793" customHeight="1" spans="6:6">
       <c r="F793" s="5"/>
     </row>
-    <row r="794">
+    <row r="794" customHeight="1" spans="6:6">
       <c r="F794" s="5"/>
     </row>
-    <row r="795">
+    <row r="795" customHeight="1" spans="6:6">
       <c r="F795" s="5"/>
     </row>
-    <row r="796">
+    <row r="796" customHeight="1" spans="6:6">
       <c r="F796" s="5"/>
     </row>
-    <row r="797">
+    <row r="797" customHeight="1" spans="6:6">
       <c r="F797" s="5"/>
     </row>
-    <row r="798">
+    <row r="798" customHeight="1" spans="6:6">
       <c r="F798" s="5"/>
     </row>
-    <row r="799">
+    <row r="799" customHeight="1" spans="6:6">
       <c r="F799" s="5"/>
     </row>
-    <row r="800">
+    <row r="800" customHeight="1" spans="6:6">
       <c r="F800" s="5"/>
     </row>
-    <row r="801">
+    <row r="801" customHeight="1" spans="6:6">
       <c r="F801" s="5"/>
     </row>
-    <row r="802">
+    <row r="802" customHeight="1" spans="6:6">
       <c r="F802" s="5"/>
     </row>
-    <row r="803">
+    <row r="803" customHeight="1" spans="6:6">
       <c r="F803" s="5"/>
     </row>
-    <row r="804">
+    <row r="804" customHeight="1" spans="6:6">
       <c r="F804" s="5"/>
     </row>
-    <row r="805">
+    <row r="805" customHeight="1" spans="6:6">
       <c r="F805" s="5"/>
     </row>
-    <row r="806">
+    <row r="806" customHeight="1" spans="6:6">
       <c r="F806" s="5"/>
     </row>
-    <row r="807">
+    <row r="807" customHeight="1" spans="6:6">
       <c r="F807" s="5"/>
     </row>
-    <row r="808">
+    <row r="808" customHeight="1" spans="6:6">
       <c r="F808" s="5"/>
     </row>
-    <row r="809">
+    <row r="809" customHeight="1" spans="6:6">
       <c r="F809" s="5"/>
     </row>
-    <row r="810">
+    <row r="810" customHeight="1" spans="6:6">
       <c r="F810" s="5"/>
     </row>
-    <row r="811">
+    <row r="811" customHeight="1" spans="6:6">
       <c r="F811" s="5"/>
     </row>
-    <row r="812">
+    <row r="812" customHeight="1" spans="6:6">
       <c r="F812" s="5"/>
     </row>
-    <row r="813">
+    <row r="813" customHeight="1" spans="6:6">
       <c r="F813" s="5"/>
     </row>
-    <row r="814">
+    <row r="814" customHeight="1" spans="6:6">
       <c r="F814" s="5"/>
     </row>
-    <row r="815">
+    <row r="815" customHeight="1" spans="6:6">
       <c r="F815" s="5"/>
     </row>
-    <row r="816">
+    <row r="816" customHeight="1" spans="6:6">
       <c r="F816" s="5"/>
     </row>
-    <row r="817">
+    <row r="817" customHeight="1" spans="6:6">
       <c r="F817" s="5"/>
     </row>
-    <row r="818">
+    <row r="818" customHeight="1" spans="6:6">
       <c r="F818" s="5"/>
     </row>
-    <row r="819">
+    <row r="819" customHeight="1" spans="6:6">
       <c r="F819" s="5"/>
     </row>
-    <row r="820">
+    <row r="820" customHeight="1" spans="6:6">
       <c r="F820" s="5"/>
     </row>
-    <row r="821">
+    <row r="821" customHeight="1" spans="6:6">
       <c r="F821" s="5"/>
     </row>
-    <row r="822">
+    <row r="822" customHeight="1" spans="6:6">
       <c r="F822" s="5"/>
     </row>
-    <row r="823">
+    <row r="823" customHeight="1" spans="6:6">
       <c r="F823" s="5"/>
     </row>
-    <row r="824">
+    <row r="824" customHeight="1" spans="6:6">
       <c r="F824" s="5"/>
     </row>
-    <row r="825">
+    <row r="825" customHeight="1" spans="6:6">
       <c r="F825" s="5"/>
     </row>
-    <row r="826">
+    <row r="826" customHeight="1" spans="6:6">
       <c r="F826" s="5"/>
     </row>
-    <row r="827">
+    <row r="827" customHeight="1" spans="6:6">
       <c r="F827" s="5"/>
     </row>
-    <row r="828">
+    <row r="828" customHeight="1" spans="6:6">
       <c r="F828" s="5"/>
     </row>
-    <row r="829">
+    <row r="829" customHeight="1" spans="6:6">
       <c r="F829" s="5"/>
     </row>
-    <row r="830">
+    <row r="830" customHeight="1" spans="6:6">
       <c r="F830" s="5"/>
     </row>
-    <row r="831">
+    <row r="831" customHeight="1" spans="6:6">
       <c r="F831" s="5"/>
     </row>
-    <row r="832">
+    <row r="832" customHeight="1" spans="6:6">
       <c r="F832" s="5"/>
     </row>
-    <row r="833">
+    <row r="833" customHeight="1" spans="6:6">
       <c r="F833" s="5"/>
     </row>
-    <row r="834">
+    <row r="834" customHeight="1" spans="6:6">
       <c r="F834" s="5"/>
     </row>
-    <row r="835">
+    <row r="835" customHeight="1" spans="6:6">
       <c r="F835" s="5"/>
     </row>
-    <row r="836">
+    <row r="836" customHeight="1" spans="6:6">
       <c r="F836" s="5"/>
     </row>
-    <row r="837">
+    <row r="837" customHeight="1" spans="6:6">
       <c r="F837" s="5"/>
     </row>
-    <row r="838">
+    <row r="838" customHeight="1" spans="6:6">
       <c r="F838" s="5"/>
     </row>
-    <row r="839">
+    <row r="839" customHeight="1" spans="6:6">
       <c r="F839" s="5"/>
     </row>
-    <row r="840">
+    <row r="840" customHeight="1" spans="6:6">
       <c r="F840" s="5"/>
     </row>
-    <row r="841">
+    <row r="841" customHeight="1" spans="6:6">
       <c r="F841" s="5"/>
     </row>
-    <row r="842">
+    <row r="842" customHeight="1" spans="6:6">
       <c r="F842" s="5"/>
     </row>
-    <row r="843">
+    <row r="843" customHeight="1" spans="6:6">
       <c r="F843" s="5"/>
     </row>
-    <row r="844">
+    <row r="844" customHeight="1" spans="6:6">
       <c r="F844" s="5"/>
     </row>
-    <row r="845">
+    <row r="845" customHeight="1" spans="6:6">
       <c r="F845" s="5"/>
     </row>
-    <row r="846">
+    <row r="846" customHeight="1" spans="6:6">
       <c r="F846" s="5"/>
     </row>
-    <row r="847">
+    <row r="847" customHeight="1" spans="6:6">
       <c r="F847" s="5"/>
     </row>
-    <row r="848">
+    <row r="848" customHeight="1" spans="6:6">
       <c r="F848" s="5"/>
     </row>
-    <row r="849">
+    <row r="849" customHeight="1" spans="6:6">
       <c r="F849" s="5"/>
     </row>
-    <row r="850">
+    <row r="850" customHeight="1" spans="6:6">
       <c r="F850" s="5"/>
     </row>
-    <row r="851">
+    <row r="851" customHeight="1" spans="6:6">
       <c r="F851" s="5"/>
     </row>
-    <row r="852">
+    <row r="852" customHeight="1" spans="6:6">
       <c r="F852" s="5"/>
     </row>
-    <row r="853">
+    <row r="853" customHeight="1" spans="6:6">
       <c r="F853" s="5"/>
     </row>
-    <row r="854">
+    <row r="854" customHeight="1" spans="6:6">
       <c r="F854" s="5"/>
     </row>
-    <row r="855">
+    <row r="855" customHeight="1" spans="6:6">
       <c r="F855" s="5"/>
     </row>
-    <row r="856">
+    <row r="856" customHeight="1" spans="6:6">
       <c r="F856" s="5"/>
     </row>
-    <row r="857">
+    <row r="857" customHeight="1" spans="6:6">
       <c r="F857" s="5"/>
     </row>
-    <row r="858">
+    <row r="858" customHeight="1" spans="6:6">
       <c r="F858" s="5"/>
     </row>
-    <row r="859">
+    <row r="859" customHeight="1" spans="6:6">
       <c r="F859" s="5"/>
     </row>
-    <row r="860">
+    <row r="860" customHeight="1" spans="6:6">
       <c r="F860" s="5"/>
     </row>
-    <row r="861">
+    <row r="861" customHeight="1" spans="6:6">
       <c r="F861" s="5"/>
     </row>
-    <row r="862">
+    <row r="862" customHeight="1" spans="6:6">
       <c r="F862" s="5"/>
     </row>
-    <row r="863">
+    <row r="863" customHeight="1" spans="6:6">
       <c r="F863" s="5"/>
     </row>
-    <row r="864">
+    <row r="864" customHeight="1" spans="6:6">
       <c r="F864" s="5"/>
     </row>
-    <row r="865">
+    <row r="865" customHeight="1" spans="6:6">
       <c r="F865" s="5"/>
     </row>
-    <row r="866">
+    <row r="866" customHeight="1" spans="6:6">
       <c r="F866" s="5"/>
     </row>
-    <row r="867">
+    <row r="867" customHeight="1" spans="6:6">
       <c r="F867" s="5"/>
     </row>
-    <row r="868">
+    <row r="868" customHeight="1" spans="6:6">
       <c r="F868" s="5"/>
     </row>
-    <row r="869">
+    <row r="869" customHeight="1" spans="6:6">
       <c r="F869" s="5"/>
     </row>
-    <row r="870">
+    <row r="870" customHeight="1" spans="6:6">
       <c r="F870" s="5"/>
     </row>
-    <row r="871">
+    <row r="871" customHeight="1" spans="6:6">
       <c r="F871" s="5"/>
     </row>
-    <row r="872">
+    <row r="872" customHeight="1" spans="6:6">
       <c r="F872" s="5"/>
     </row>
-    <row r="873">
+    <row r="873" customHeight="1" spans="6:6">
       <c r="F873" s="5"/>
     </row>
-    <row r="874">
+    <row r="874" customHeight="1" spans="6:6">
       <c r="F874" s="5"/>
     </row>
-    <row r="875">
+    <row r="875" customHeight="1" spans="6:6">
       <c r="F875" s="5"/>
     </row>
-    <row r="876">
+    <row r="876" customHeight="1" spans="6:6">
       <c r="F876" s="5"/>
     </row>
-    <row r="877">
+    <row r="877" customHeight="1" spans="6:6">
       <c r="F877" s="5"/>
     </row>
-    <row r="878">
+    <row r="878" customHeight="1" spans="6:6">
       <c r="F878" s="5"/>
     </row>
-    <row r="879">
+    <row r="879" customHeight="1" spans="6:6">
       <c r="F879" s="5"/>
     </row>
-    <row r="880">
+    <row r="880" customHeight="1" spans="6:6">
       <c r="F880" s="5"/>
     </row>
-    <row r="881">
+    <row r="881" customHeight="1" spans="6:6">
       <c r="F881" s="5"/>
     </row>
-    <row r="882">
+    <row r="882" customHeight="1" spans="6:6">
       <c r="F882" s="5"/>
     </row>
-    <row r="883">
+    <row r="883" customHeight="1" spans="6:6">
       <c r="F883" s="5"/>
     </row>
-    <row r="884">
+    <row r="884" customHeight="1" spans="6:6">
       <c r="F884" s="5"/>
     </row>
-    <row r="885">
+    <row r="885" customHeight="1" spans="6:6">
       <c r="F885" s="5"/>
     </row>
-    <row r="886">
+    <row r="886" customHeight="1" spans="6:6">
       <c r="F886" s="5"/>
     </row>
-    <row r="887">
+    <row r="887" customHeight="1" spans="6:6">
       <c r="F887" s="5"/>
     </row>
-    <row r="888">
+    <row r="888" customHeight="1" spans="6:6">
       <c r="F888" s="5"/>
     </row>
-    <row r="889">
+    <row r="889" customHeight="1" spans="6:6">
       <c r="F889" s="5"/>
     </row>
-    <row r="890">
+    <row r="890" customHeight="1" spans="6:6">
       <c r="F890" s="5"/>
     </row>
-    <row r="891">
+    <row r="891" customHeight="1" spans="6:6">
       <c r="F891" s="5"/>
     </row>
-    <row r="892">
+    <row r="892" customHeight="1" spans="6:6">
       <c r="F892" s="5"/>
     </row>
-    <row r="893">
+    <row r="893" customHeight="1" spans="6:6">
       <c r="F893" s="5"/>
     </row>
-    <row r="894">
+    <row r="894" customHeight="1" spans="6:6">
       <c r="F894" s="5"/>
     </row>
-    <row r="895">
+    <row r="895" customHeight="1" spans="6:6">
       <c r="F895" s="5"/>
     </row>
-    <row r="896">
+    <row r="896" customHeight="1" spans="6:6">
       <c r="F896" s="5"/>
     </row>
-    <row r="897">
+    <row r="897" customHeight="1" spans="6:6">
       <c r="F897" s="5"/>
     </row>
-    <row r="898">
+    <row r="898" customHeight="1" spans="6:6">
       <c r="F898" s="5"/>
     </row>
-    <row r="899">
+    <row r="899" customHeight="1" spans="6:6">
       <c r="F899" s="5"/>
     </row>
-    <row r="900">
+    <row r="900" customHeight="1" spans="6:6">
       <c r="F900" s="5"/>
     </row>
-    <row r="901">
+    <row r="901" customHeight="1" spans="6:6">
       <c r="F901" s="5"/>
     </row>
-    <row r="902">
+    <row r="902" customHeight="1" spans="6:6">
       <c r="F902" s="5"/>
     </row>
-    <row r="903">
+    <row r="903" customHeight="1" spans="6:6">
       <c r="F903" s="5"/>
     </row>
-    <row r="904">
+    <row r="904" customHeight="1" spans="6:6">
       <c r="F904" s="5"/>
     </row>
-    <row r="905">
+    <row r="905" customHeight="1" spans="6:6">
       <c r="F905" s="5"/>
     </row>
-    <row r="906">
+    <row r="906" customHeight="1" spans="6:6">
       <c r="F906" s="5"/>
     </row>
-    <row r="907">
+    <row r="907" customHeight="1" spans="6:6">
       <c r="F907" s="5"/>
     </row>
-    <row r="908">
+    <row r="908" customHeight="1" spans="6:6">
       <c r="F908" s="5"/>
     </row>
-    <row r="909">
+    <row r="909" customHeight="1" spans="6:6">
       <c r="F909" s="5"/>
     </row>
-    <row r="910">
+    <row r="910" customHeight="1" spans="6:6">
       <c r="F910" s="5"/>
     </row>
-    <row r="911">
+    <row r="911" customHeight="1" spans="6:6">
       <c r="F911" s="5"/>
     </row>
-    <row r="912">
+    <row r="912" customHeight="1" spans="6:6">
       <c r="F912" s="5"/>
     </row>
-    <row r="913">
+    <row r="913" customHeight="1" spans="6:6">
       <c r="F913" s="5"/>
     </row>
-    <row r="914">
+    <row r="914" customHeight="1" spans="6:6">
       <c r="F914" s="5"/>
     </row>
-    <row r="915">
+    <row r="915" customHeight="1" spans="6:6">
       <c r="F915" s="5"/>
     </row>
-    <row r="916">
+    <row r="916" customHeight="1" spans="6:6">
       <c r="F916" s="5"/>
     </row>
-    <row r="917">
+    <row r="917" customHeight="1" spans="6:6">
       <c r="F917" s="5"/>
     </row>
-    <row r="918">
+    <row r="918" customHeight="1" spans="6:6">
       <c r="F918" s="5"/>
     </row>
-    <row r="919">
+    <row r="919" customHeight="1" spans="6:6">
       <c r="F919" s="5"/>
     </row>
-    <row r="920">
+    <row r="920" customHeight="1" spans="6:6">
       <c r="F920" s="5"/>
     </row>
-    <row r="921">
+    <row r="921" customHeight="1" spans="6:6">
       <c r="F921" s="5"/>
     </row>
-    <row r="922">
+    <row r="922" customHeight="1" spans="6:6">
       <c r="F922" s="5"/>
     </row>
-    <row r="923">
+    <row r="923" customHeight="1" spans="6:6">
       <c r="F923" s="5"/>
     </row>
-    <row r="924">
+    <row r="924" customHeight="1" spans="6:6">
       <c r="F924" s="5"/>
     </row>
-    <row r="925">
+    <row r="925" customHeight="1" spans="6:6">
       <c r="F925" s="5"/>
     </row>
-    <row r="926">
+    <row r="926" customHeight="1" spans="6:6">
       <c r="F926" s="5"/>
     </row>
-    <row r="927">
+    <row r="927" customHeight="1" spans="6:6">
       <c r="F927" s="5"/>
     </row>
-    <row r="928">
+    <row r="928" customHeight="1" spans="6:6">
       <c r="F928" s="5"/>
     </row>
-    <row r="929">
+    <row r="929" customHeight="1" spans="6:6">
       <c r="F929" s="5"/>
     </row>
-    <row r="930">
+    <row r="930" customHeight="1" spans="6:6">
       <c r="F930" s="5"/>
     </row>
-    <row r="931">
+    <row r="931" customHeight="1" spans="6:6">
       <c r="F931" s="5"/>
     </row>
-    <row r="932">
+    <row r="932" customHeight="1" spans="6:6">
       <c r="F932" s="5"/>
     </row>
-    <row r="933">
+    <row r="933" customHeight="1" spans="6:6">
       <c r="F933" s="5"/>
     </row>
-    <row r="934">
+    <row r="934" customHeight="1" spans="6:6">
       <c r="F934" s="5"/>
     </row>
-    <row r="935">
+    <row r="935" customHeight="1" spans="6:6">
       <c r="F935" s="5"/>
     </row>
-    <row r="936">
+    <row r="936" customHeight="1" spans="6:6">
       <c r="F936" s="5"/>
     </row>
-    <row r="937">
+    <row r="937" customHeight="1" spans="6:6">
       <c r="F937" s="5"/>
     </row>
-    <row r="938">
+    <row r="938" customHeight="1" spans="6:6">
       <c r="F938" s="5"/>
     </row>
-    <row r="939">
+    <row r="939" customHeight="1" spans="6:6">
       <c r="F939" s="5"/>
     </row>
-    <row r="940">
+    <row r="940" customHeight="1" spans="6:6">
       <c r="F940" s="5"/>
     </row>
-    <row r="941">
+    <row r="941" customHeight="1" spans="6:6">
       <c r="F941" s="5"/>
     </row>
-    <row r="942">
+    <row r="942" customHeight="1" spans="6:6">
       <c r="F942" s="5"/>
     </row>
-    <row r="943">
+    <row r="943" customHeight="1" spans="6:6">
       <c r="F943" s="5"/>
     </row>
-    <row r="944">
+    <row r="944" customHeight="1" spans="6:6">
       <c r="F944" s="5"/>
     </row>
-    <row r="945">
+    <row r="945" customHeight="1" spans="6:6">
       <c r="F945" s="5"/>
     </row>
-    <row r="946">
+    <row r="946" customHeight="1" spans="6:6">
       <c r="F946" s="5"/>
     </row>
-    <row r="947">
+    <row r="947" customHeight="1" spans="6:6">
       <c r="F947" s="5"/>
     </row>
-    <row r="948">
+    <row r="948" customHeight="1" spans="6:6">
       <c r="F948" s="5"/>
     </row>
-    <row r="949">
+    <row r="949" customHeight="1" spans="6:6">
       <c r="F949" s="5"/>
     </row>
-    <row r="950">
+    <row r="950" customHeight="1" spans="6:6">
       <c r="F950" s="5"/>
     </row>
-    <row r="951">
+    <row r="951" customHeight="1" spans="6:6">
       <c r="F951" s="5"/>
     </row>
-    <row r="952">
+    <row r="952" customHeight="1" spans="6:6">
       <c r="F952" s="5"/>
     </row>
-    <row r="953">
+    <row r="953" customHeight="1" spans="6:6">
       <c r="F953" s="5"/>
     </row>
-    <row r="954">
+    <row r="954" customHeight="1" spans="6:6">
       <c r="F954" s="5"/>
     </row>
-    <row r="955">
+    <row r="955" customHeight="1" spans="6:6">
       <c r="F955" s="5"/>
     </row>
-    <row r="956">
+    <row r="956" customHeight="1" spans="6:6">
       <c r="F956" s="5"/>
     </row>
-    <row r="957">
+    <row r="957" customHeight="1" spans="6:6">
       <c r="F957" s="5"/>
     </row>
-    <row r="958">
+    <row r="958" customHeight="1" spans="6:6">
       <c r="F958" s="5"/>
     </row>
-    <row r="959">
+    <row r="959" customHeight="1" spans="6:6">
       <c r="F959" s="5"/>
     </row>
-    <row r="960">
+    <row r="960" customHeight="1" spans="6:6">
       <c r="F960" s="5"/>
     </row>
-    <row r="961">
+    <row r="961" customHeight="1" spans="6:6">
       <c r="F961" s="5"/>
     </row>
-    <row r="962">
+    <row r="962" customHeight="1" spans="6:6">
       <c r="F962" s="5"/>
     </row>
-    <row r="963">
+    <row r="963" customHeight="1" spans="6:6">
       <c r="F963" s="5"/>
     </row>
-    <row r="964">
+    <row r="964" customHeight="1" spans="6:6">
       <c r="F964" s="5"/>
     </row>
-    <row r="965">
+    <row r="965" customHeight="1" spans="6:6">
       <c r="F965" s="5"/>
     </row>
-    <row r="966">
+    <row r="966" customHeight="1" spans="6:6">
       <c r="F966" s="5"/>
     </row>
-    <row r="967">
+    <row r="967" customHeight="1" spans="6:6">
       <c r="F967" s="5"/>
     </row>
-    <row r="968">
+    <row r="968" customHeight="1" spans="6:6">
       <c r="F968" s="5"/>
     </row>
-    <row r="969">
+    <row r="969" customHeight="1" spans="6:6">
       <c r="F969" s="5"/>
     </row>
-    <row r="970">
+    <row r="970" customHeight="1" spans="6:6">
       <c r="F970" s="5"/>
     </row>
-    <row r="971">
+    <row r="971" customHeight="1" spans="6:6">
       <c r="F971" s="5"/>
     </row>
-    <row r="972">
+    <row r="972" customHeight="1" spans="6:6">
       <c r="F972" s="5"/>
     </row>
-    <row r="973">
+    <row r="973" customHeight="1" spans="6:6">
       <c r="F973" s="5"/>
     </row>
-    <row r="974">
+    <row r="974" customHeight="1" spans="6:6">
       <c r="F974" s="5"/>
     </row>
-    <row r="975">
+    <row r="975" customHeight="1" spans="6:6">
       <c r="F975" s="5"/>
     </row>
-    <row r="976">
+    <row r="976" customHeight="1" spans="6:6">
       <c r="F976" s="5"/>
     </row>
-    <row r="977">
+    <row r="977" customHeight="1" spans="6:6">
       <c r="F977" s="5"/>
     </row>
-    <row r="978">
+    <row r="978" customHeight="1" spans="6:6">
       <c r="F978" s="5"/>
     </row>
-    <row r="979">
+    <row r="979" customHeight="1" spans="6:6">
       <c r="F979" s="5"/>
     </row>
-    <row r="980">
+    <row r="980" customHeight="1" spans="6:6">
       <c r="F980" s="5"/>
     </row>
-    <row r="981">
+    <row r="981" customHeight="1" spans="6:6">
       <c r="F981" s="5"/>
     </row>
-    <row r="982">
+    <row r="982" customHeight="1" spans="6:6">
       <c r="F982" s="5"/>
     </row>
-    <row r="983">
+    <row r="983" customHeight="1" spans="6:6">
       <c r="F983" s="5"/>
     </row>
-    <row r="984">
+    <row r="984" customHeight="1" spans="6:6">
       <c r="F984" s="5"/>
     </row>
-    <row r="985">
+    <row r="985" customHeight="1" spans="6:6">
       <c r="F985" s="5"/>
     </row>
-    <row r="986">
+    <row r="986" customHeight="1" spans="6:6">
       <c r="F986" s="5"/>
     </row>
-    <row r="987">
+    <row r="987" customHeight="1" spans="6:6">
       <c r="F987" s="5"/>
     </row>
-    <row r="988">
+    <row r="988" customHeight="1" spans="6:6">
       <c r="F988" s="5"/>
     </row>
-    <row r="989">
+    <row r="989" customHeight="1" spans="6:6">
       <c r="F989" s="5"/>
     </row>
-    <row r="990">
+    <row r="990" customHeight="1" spans="6:6">
       <c r="F990" s="5"/>
     </row>
-    <row r="991">
+    <row r="991" customHeight="1" spans="6:6">
       <c r="F991" s="5"/>
     </row>
-    <row r="992">
+    <row r="992" customHeight="1" spans="6:6">
       <c r="F992" s="5"/>
     </row>
-    <row r="993">
+    <row r="993" customHeight="1" spans="6:6">
       <c r="F993" s="5"/>
     </row>
-    <row r="994">
+    <row r="994" customHeight="1" spans="6:6">
       <c r="F994" s="5"/>
     </row>
-    <row r="995">
+    <row r="995" customHeight="1" spans="6:6">
       <c r="F995" s="5"/>
     </row>
-    <row r="996">
+    <row r="996" customHeight="1" spans="6:6">
       <c r="F996" s="5"/>
     </row>
-    <row r="997">
+    <row r="997" customHeight="1" spans="6:6">
       <c r="F997" s="5"/>
     </row>
-    <row r="998">
+    <row r="998" customHeight="1" spans="6:6">
       <c r="F998" s="5"/>
     </row>
-    <row r="999">
+    <row r="999" customHeight="1" spans="6:6">
       <c r="F999" s="5"/>
     </row>
-    <row r="1000">
+    <row r="1000" customHeight="1" spans="6:6">
       <c r="F1000" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>